--- a/N-DEx_NIBRS XSLT/NIBRS_mapping.xlsx
+++ b/N-DEx_NIBRS XSLT/NIBRS_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-27680" yWindow="6360" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="-26360" yWindow="6340" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="NIBRS" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="303">
   <si>
     <t>TARGET_COLUMN</t>
   </si>
@@ -914,16 +914,66 @@
     <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:TangibleItem[ndexia:TangibleItemAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityTangibleItem/nc20:TangibleItem/@s20:id]/ndexia:TangibleItemAugmentation/ndexia:ItemQuantityStatusValue/ndexia:ItemValue/nc20:ItemValueAmount</t>
   </si>
   <si>
-    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:Victim/@s20:id]
-[j40:Victim/nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]
-/lexsdigest:Person/@s20:id]</t>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:Victim[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:VictimInjury/ndexia:InjuryAugmentation/ndexia:InjuryCategoryCode</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:Victim[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/j40:VictimCategoryCode</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:Victim[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/j40:VictimJustifiableHomicideFactorCode</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:Victim[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:VictimAugmentation/ndexia:VictimAggravatedAssaultHomicideFactorCode</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:Victim[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:VictimAugmentation/ndexia:VictimSequenceNumberText</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:VictimInjury/ndexia:InjuryAugmentation/ndexia:InjuryCategoryCode</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/j40:VictimCategoryCode</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/j40:VictimJustifiableHomicideFactorCode</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:VictimAugmentation/ndexia:VictimAggravatedAssaultHomicideFactorCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/nibrs-ext:IncidentReport/nibrs-ext:Property[lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityTangibleItem/nc20:TangibleItem/@s20:id]j40:PropertyCategoryNIBRSPropertyCategoryCode
+</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityDrug/nc20:Drug/j40:DrugDEACode</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Drug[ndexia:DrugAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityDrug/nc20:Drug/@s20:id]/ndexia:DrugAugmentation/ndexia:ItemQuantityStatusValue/nc20:SubstanceQuantityMeasure/nc20:MeasurePointValue</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Drug[ndexia:DrugAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityDrug/nc20:Drug/@s20:id]/ndexia:DrugAugmentation/ndexia:ItemQuantityStatusValue/nc20:SubstanceQuantityMeasure/nc20:SubstanceUnitCode</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Victim
+[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial
+[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]
+/@s20:id]
+/ndexia:VictimAugmentation/ndexia:VictimSequenceNumberText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:Associations/lexsdigest:OffenseVictimPersonAssociation[nc20:ActivityReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityActivity/nc20:Activity/@s20:id][nc20:PersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]
+</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonAgeMeasure/nc20:MeasurePointValue
+lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonAgeMeasure/nc20:MeasurePointValue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -990,6 +1040,13 @@
       <color rgb="FFFF0000"/>
       <name val="TimesNewRomanPSMT"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1026,7 +1083,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="138">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1101,6 +1158,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1246,16 +1312,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1264,14 +1321,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="138">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1372,6 +1438,15 @@
     <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1743,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L144"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H51" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1835,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="28"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="16" t="s">
         <v>45</v>
       </c>
@@ -1852,7 +1927,7 @@
       <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="27" t="s">
         <v>247</v>
       </c>
       <c r="I5" s="20" t="s">
@@ -1875,7 +1950,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="27" t="s">
         <v>246</v>
       </c>
       <c r="I6" s="17" t="s">
@@ -1901,7 +1976,7 @@
       <c r="G7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="27" t="s">
         <v>254</v>
       </c>
       <c r="I7" s="16" t="s">
@@ -1927,7 +2002,7 @@
       <c r="G8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="27" t="s">
         <v>253</v>
       </c>
       <c r="I8" s="16" t="s">
@@ -2079,395 +2154,398 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:12">
-      <c r="E15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="6">
-        <v>3</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" s="27"/>
+    <row r="15" spans="1:12" ht="45">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>266</v>
+      </c>
       <c r="I15" s="16" t="s">
         <v>155</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="60">
       <c r="A16" s="1">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>155</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="60">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45">
       <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="45">
+        <v>248</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="60">
       <c r="A18" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1">
         <v>2</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>58</v>
+      <c r="G18" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="60">
+        <v>260</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="45">
       <c r="A19" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>139</v>
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="I19" s="23" t="s">
         <v>155</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="60">
       <c r="A20" s="1">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>155</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60">
       <c r="A21" s="1">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>130</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I21" s="23" t="s">
         <v>155</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="60">
-      <c r="A22" s="1">
-        <v>13</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="29" customFormat="1" ht="60">
+      <c r="A22" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" ht="60">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="1">
         <v>2</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="I22" s="23" t="s">
+      <c r="G23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="I23" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="J22" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="31" customFormat="1" ht="60">
-      <c r="A23" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" ht="60">
-      <c r="A24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="J23" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" ht="60">
+      <c r="A25" s="1">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="75">
+      <c r="A26" s="1">
+        <v>15</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="1">
         <v>2</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="5">
-        <v>4</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" ht="60">
-      <c r="A26" s="1">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
       <c r="G26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="I26" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" ht="45">
+      <c r="A27" s="1">
+        <v>16</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="1">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="I27" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="J26" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1">
-        <v>15</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="J27" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="48">
+      <c r="A28" s="1">
+        <v>17</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="E28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="1">
+        <v>8</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="45">
+      <c r="A29" s="1">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1">
         <v>2</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="20" t="s">
+      <c r="G29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="I29" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" ht="45">
-      <c r="A28" s="1">
-        <v>16</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="E28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="1">
-        <v>9</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="48">
-      <c r="A29" s="1">
-        <v>17</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="E29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="1">
-        <v>8</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>147</v>
-      </c>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
     </row>
     <row r="30" spans="1:11" ht="45">
       <c r="A30" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F30" s="1">
         <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H30" s="25" t="s">
         <v>283</v>
@@ -2478,450 +2556,466 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" ht="45">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>132</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30">
+      <c r="A32" s="1">
+        <v>21</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="1">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="75">
+      <c r="B33" s="31"/>
+      <c r="E33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="31"/>
+      <c r="I33" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:11" ht="30">
+      <c r="A34" s="1">
+        <v>22</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="E34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="1">
         <v>2</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1">
-        <v>20</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="30">
-      <c r="A33" s="1">
-        <v>21</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="E33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="1">
-        <v>9</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="18" t="s">
+      <c r="G34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="I34" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="J33" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="75">
-      <c r="B34" s="32"/>
-      <c r="E34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="J34" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="5">
+        <v>4</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="31"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="1:11" ht="165">
+      <c r="A36" s="32">
+        <v>23</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="1">
         <v>3</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-    </row>
-    <row r="35" spans="1:11" ht="30">
-      <c r="A35" s="1">
-        <v>22</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="E35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="1">
-        <v>2</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="C36" s="1">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="5">
-        <v>4</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1">
-        <v>23</v>
+      <c r="G36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="105">
+      <c r="A37" s="32">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="F37" s="1">
         <v>3</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="60">
+      <c r="A38" s="32">
+        <v>25</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="I38" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="J37" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1">
-        <v>24</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="1">
-        <v>3</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J38" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1">
-        <v>25</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>80</v>
+      <c r="J38" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="28" customFormat="1">
+      <c r="A39" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>250</v>
       </c>
       <c r="H39" s="25"/>
-      <c r="I39" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J39" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="30" customFormat="1">
-      <c r="A40" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="11"/>
-    </row>
-    <row r="41" spans="1:11" ht="45">
-      <c r="A41" s="1">
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11" ht="105">
+      <c r="A40" s="32">
         <v>26</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="32">
+        <v>27</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="F41" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H41" s="25"/>
-      <c r="I41" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1">
-        <v>27</v>
+      <c r="I41" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="60">
+      <c r="A42" s="32">
+        <v>28</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" s="25"/>
+        <v>85</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="I42" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>225</v>
+        <v>180</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="60">
-      <c r="A43" s="1">
-        <v>28</v>
+      <c r="A43" s="32">
+        <v>29</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="J43" s="18" t="s">
-        <v>227</v>
+      <c r="J43" s="19" t="s">
+        <v>229</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="60">
-      <c r="A44" s="1">
-        <v>29</v>
+      <c r="A44" s="32">
+        <v>30</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I44" s="19" t="s">
         <v>180</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="60">
-      <c r="A45" s="1">
-        <v>30</v>
+      <c r="A45" s="32">
+        <v>31</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1">
-        <v>31</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>134</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="60">
+      <c r="A46" s="32">
+        <v>32</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="F46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H46" s="25"/>
+        <v>91</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>294</v>
+      </c>
       <c r="I46" s="19" t="s">
         <v>195</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1">
-        <v>32</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="60">
+      <c r="A47" s="32">
+        <v>33</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="25"/>
+        <v>92</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>292</v>
+      </c>
       <c r="I47" s="19" t="s">
         <v>195</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1">
-        <v>33</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>135</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="60">
+      <c r="A48" s="32">
+        <v>34</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>136</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H48" s="25"/>
-      <c r="I48" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J48" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="60">
-      <c r="A49" s="1">
-        <v>34</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>136</v>
-      </c>
+      <c r="I48" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+    </row>
+    <row r="49" spans="1:11" ht="30">
+      <c r="A49" s="32">
+        <v>35</v>
+      </c>
+      <c r="B49" s="31"/>
       <c r="E49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="20" t="s">
@@ -2930,353 +3024,361 @@
       <c r="J49" s="16"/>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:11" ht="30">
-      <c r="A50" s="1">
-        <v>35</v>
-      </c>
-      <c r="B50" s="32"/>
-      <c r="E50" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="20" t="s">
-        <v>237</v>
-      </c>
+    <row r="50" spans="1:11" s="29" customFormat="1">
+      <c r="C50" s="29">
+        <v>4</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="5">
+        <v>4</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="23"/>
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:11" s="31" customFormat="1">
-      <c r="C51" s="31">
+    <row r="51" spans="1:11" s="29" customFormat="1" ht="60">
+      <c r="A51" s="29">
+        <v>23</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="29">
+        <v>3</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J51" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="29" customFormat="1">
+      <c r="A52" s="29">
+        <v>24</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" s="29">
+        <v>3</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="25"/>
+      <c r="I52" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="29" customFormat="1" ht="60">
+      <c r="A53" s="29">
+        <v>25</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="29">
+        <v>1</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="29" customFormat="1">
+      <c r="A54" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="H54" s="25"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="1:11" s="29" customFormat="1" ht="45">
+      <c r="A55" s="29">
+        <v>26</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F55" s="29">
         <v>4</v>
       </c>
-      <c r="D51" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="5">
-        <v>4</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-    </row>
-    <row r="52" spans="1:11" s="31" customFormat="1">
-      <c r="A52" s="31">
-        <v>23</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="31">
-        <v>3</v>
-      </c>
-      <c r="G52" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J52" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="31" customFormat="1">
-      <c r="A53" s="31">
-        <v>24</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F53" s="31">
-        <v>3</v>
-      </c>
-      <c r="G53" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J53" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="K53" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="31" customFormat="1">
-      <c r="A54" s="31">
-        <v>25</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54" s="31">
-        <v>1</v>
-      </c>
-      <c r="G54" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J54" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="31" customFormat="1">
-      <c r="A55" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>250</v>
+      <c r="G55" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="H55" s="25"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="11"/>
-    </row>
-    <row r="56" spans="1:11" s="31" customFormat="1" ht="45">
-      <c r="A56" s="31">
-        <v>26</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="F56" s="31">
-        <v>4</v>
-      </c>
-      <c r="G56" s="31" t="s">
-        <v>81</v>
+      <c r="I55" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="29" customFormat="1">
+      <c r="A56" s="29">
+        <v>27</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="29">
+        <v>1</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="H56" s="25"/>
-      <c r="I56" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="J56" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="K56" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="31" customFormat="1">
-      <c r="A57" s="31">
-        <v>27</v>
-      </c>
-      <c r="E57" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F57" s="31">
-        <v>1</v>
-      </c>
-      <c r="G57" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="H57" s="25"/>
+      <c r="I56" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="29" customFormat="1" ht="60">
+      <c r="A57" s="29">
+        <v>28</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="29">
+        <v>1</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>279</v>
+      </c>
       <c r="I57" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J57" s="19" t="s">
-        <v>225</v>
+        <v>180</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="31" customFormat="1" ht="60">
-      <c r="A58" s="31">
-        <v>28</v>
-      </c>
-      <c r="E58" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F58" s="31">
-        <v>1</v>
-      </c>
-      <c r="G58" s="31" t="s">
-        <v>85</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="29" customFormat="1" ht="60">
+      <c r="A58" s="29">
+        <v>29</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="29">
+        <v>1</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I58" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="J58" s="18" t="s">
-        <v>227</v>
+      <c r="J58" s="19" t="s">
+        <v>229</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="31" customFormat="1" ht="60">
-      <c r="A59" s="31">
-        <v>29</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="F59" s="31">
-        <v>1</v>
-      </c>
-      <c r="G59" s="31" t="s">
-        <v>87</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="29" customFormat="1" ht="60">
+      <c r="A59" s="29">
+        <v>30</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="29">
+        <v>1</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I59" s="19" t="s">
         <v>180</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="31" customFormat="1" ht="60">
-      <c r="A60" s="31">
-        <v>30</v>
-      </c>
-      <c r="E60" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F60" s="31">
-        <v>1</v>
-      </c>
-      <c r="G60" s="31" t="s">
-        <v>89</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="29" customFormat="1" ht="60">
+      <c r="A60" s="29">
+        <v>31</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="29">
+        <v>2</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="I60" s="19" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="31" customFormat="1">
-      <c r="A61" s="31">
-        <v>31</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F61" s="31">
-        <v>2</v>
-      </c>
-      <c r="G61" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="H61" s="25"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="29" customFormat="1" ht="60">
+      <c r="A61" s="29">
+        <v>32</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="F61" s="29">
+        <v>1</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>289</v>
+      </c>
       <c r="I61" s="19" t="s">
         <v>195</v>
       </c>
       <c r="J61" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="31" customFormat="1">
-      <c r="A62" s="31">
-        <v>32</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="F62" s="31">
-        <v>1</v>
-      </c>
-      <c r="G62" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H62" s="25"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="29" customFormat="1" ht="60">
+      <c r="A62" s="29">
+        <v>33</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="29">
+        <v>1</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>287</v>
+      </c>
       <c r="I62" s="19" t="s">
         <v>195</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="31" customFormat="1" ht="120">
-      <c r="A63" s="31">
-        <v>33</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="29" customFormat="1" ht="60">
+      <c r="A63" s="29">
+        <v>34</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="31">
-        <v>1</v>
-      </c>
-      <c r="G63" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="I63" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J63" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="K63" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="31" customFormat="1" ht="60">
-      <c r="A64" s="31">
-        <v>34</v>
-      </c>
-      <c r="B64" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E64" s="31" t="s">
+      <c r="E63" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="31">
+      <c r="F63" s="29">
         <v>2</v>
       </c>
-      <c r="G64" s="31" t="s">
+      <c r="G63" s="29" t="s">
         <v>93</v>
+      </c>
+      <c r="H63" s="25"/>
+      <c r="I63" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+    </row>
+    <row r="64" spans="1:11" s="29" customFormat="1" ht="30">
+      <c r="A64" s="29">
+        <v>35</v>
+      </c>
+      <c r="B64" s="31"/>
+      <c r="E64" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="H64" s="25"/>
       <c r="I64" s="20" t="s">
@@ -3285,581 +3387,578 @@
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="1:11" s="31" customFormat="1" ht="30">
-      <c r="A65" s="31">
-        <v>35</v>
-      </c>
-      <c r="B65" s="32"/>
-      <c r="E65" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="20" t="s">
-        <v>237</v>
-      </c>
+    <row r="65" spans="1:11">
+      <c r="C65" s="1">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="5">
+        <v>4</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" s="5"/>
+      <c r="I65" s="23"/>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11">
-      <c r="C66" s="1">
-        <v>5</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E66" s="5" t="s">
+    <row r="66" spans="1:11" ht="75">
+      <c r="A66" s="1">
+        <v>36</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="45">
+      <c r="A67" s="1">
+        <v>37</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="1">
+        <v>4</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H67" s="25"/>
+      <c r="I67" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1">
+        <v>38</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H68" s="25"/>
+      <c r="I68" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="60">
+      <c r="A69" s="1">
+        <v>39</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="K69" s="16"/>
+    </row>
+    <row r="70" spans="1:11" s="29" customFormat="1" ht="60">
+      <c r="A70" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="I70" s="18"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="16"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="C71" s="1">
+        <v>6</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F71" s="5">
         <v>4</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G71" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H66" s="5"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-    </row>
-    <row r="67" spans="1:11" ht="75">
-      <c r="A67" s="1">
-        <v>36</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F67" s="1">
+      <c r="H71" s="5"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1">
+        <v>40</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="1">
         <v>2</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H67" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="I67" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="J67" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="K67" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="45">
-      <c r="A68" s="1">
-        <v>37</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F68" s="1">
-        <v>4</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H68" s="25"/>
-      <c r="I68" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="K68" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="1">
-        <v>38</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H69" s="25"/>
-      <c r="I69" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J69" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="K69" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="60">
-      <c r="A70" s="1">
-        <v>39</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="I70" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="K70" s="16"/>
-    </row>
-    <row r="71" spans="1:11" s="31" customFormat="1" ht="60">
-      <c r="A71" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="H71" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="I71" s="18"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="16"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="C72" s="1">
-        <v>6</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="5">
-        <v>4</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H72" s="5"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F73" s="1">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="H73" s="25"/>
-      <c r="I73" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J73" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="K73" s="11" t="s">
+      <c r="I73" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="J73" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K73" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" ht="60">
       <c r="A74" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F74" s="1">
-        <v>12</v>
-      </c>
-      <c r="G74" s="14" t="s">
-        <v>241</v>
+        <v>8</v>
       </c>
       <c r="H74" s="25"/>
       <c r="I74" s="23" t="s">
         <v>144</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="60">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="F75" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H75" s="25"/>
       <c r="I75" s="23" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J75" s="16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F76" s="1">
         <v>1</v>
       </c>
+      <c r="G76" s="13" t="s">
+        <v>235</v>
+      </c>
       <c r="H76" s="25"/>
-      <c r="I76" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="J76" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="K76" s="16" t="s">
-        <v>150</v>
+      <c r="I76" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J76" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="F77" s="1">
-        <v>1</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="H77" s="25"/>
-      <c r="I77" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J77" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="K77" s="11" t="s">
-        <v>245</v>
+      <c r="I77" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J77" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K77" s="21" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>134</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F78" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="H78" s="25"/>
-      <c r="I78" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="J78" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="K78" s="21" t="s">
-        <v>173</v>
+      <c r="I78" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J78" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>46</v>
       </c>
-      <c r="B79" s="32" t="s">
-        <v>134</v>
-      </c>
+      <c r="B79" s="31"/>
       <c r="E79" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F79" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H79" s="25"/>
-      <c r="I79" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J79" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="K79" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="I79" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+    </row>
+    <row r="80" spans="1:11" ht="174" customHeight="1">
       <c r="A80" s="1">
-        <v>46</v>
-      </c>
-      <c r="B80" s="32"/>
+        <v>47</v>
+      </c>
       <c r="E80" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F80" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H80" s="25"/>
-      <c r="I80" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-    </row>
-    <row r="81" spans="1:11" ht="174" customHeight="1">
+      <c r="I80" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="F81" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H81" s="25"/>
-      <c r="I81" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="J81" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="K81" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="I81" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J81" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="60">
       <c r="A82" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F82" s="1">
         <v>1</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H82" s="25"/>
+        <v>85</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>273</v>
+      </c>
       <c r="I82" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J82" s="19" t="s">
-        <v>225</v>
+        <v>180</v>
+      </c>
+      <c r="J82" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="60">
       <c r="A83" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F83" s="1">
         <v>1</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>85</v>
+      <c r="G83" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="H83" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I83" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="J83" s="18" t="s">
-        <v>227</v>
+      <c r="J83" s="19" t="s">
+        <v>229</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="60">
       <c r="A84" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F84" s="1">
         <v>1</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I84" s="19" t="s">
         <v>180</v>
       </c>
       <c r="J84" s="19" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="60">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F85" s="1">
         <v>1</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H85" s="25" t="s">
-        <v>274</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="H85" s="26"/>
       <c r="I85" s="19" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J85" s="19" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="1">
-        <v>52</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="F86" s="1">
         <v>1</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H86" s="26"/>
+      <c r="G86" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H86" s="25"/>
       <c r="I86" s="19" t="s">
         <v>183</v>
       </c>
       <c r="J86" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="E87" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F87" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H87" s="25"/>
-      <c r="I87" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J87" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="K87" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="E88" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F88" s="1">
-        <v>3</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H88" s="25"/>
-      <c r="I88" s="24" t="s">
+      <c r="I87" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="J88" s="21" t="s">
+      <c r="J87" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K88" s="21" t="s">
+      <c r="K87" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="30">
-      <c r="A89" s="8" t="s">
+    <row r="88" spans="1:11" ht="30">
+      <c r="A88" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+    </row>
+    <row r="89" spans="1:11" ht="18">
+      <c r="A89" s="2"/>
+      <c r="C89" s="1">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="5">
+        <v>4</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" s="5"/>
       <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-    </row>
-    <row r="90" spans="1:11" ht="18">
-      <c r="A90" s="2"/>
-      <c r="C90" s="1">
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="E90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="5">
+        <v>1</v>
+      </c>
+      <c r="G90" s="5">
         <v>7</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="5">
-        <v>4</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="23"/>
@@ -3868,42 +3967,42 @@
     </row>
     <row r="91" spans="1:11">
       <c r="E91" s="5" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="F91" s="5">
         <v>1</v>
       </c>
-      <c r="G91" s="5">
-        <v>7</v>
-      </c>
-      <c r="H91" s="5"/>
+      <c r="G91" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H91" s="7"/>
       <c r="I91" s="23"/>
       <c r="J91" s="16"/>
       <c r="K91" s="16"/>
     </row>
     <row r="92" spans="1:11">
       <c r="E92" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F92" s="5">
-        <v>1</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H92" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
       <c r="I92" s="23"/>
       <c r="J92" s="16"/>
       <c r="K92" s="16"/>
     </row>
     <row r="93" spans="1:11">
       <c r="E93" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F93" s="5">
-        <v>2</v>
-      </c>
-      <c r="G93" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H93" s="5"/>
       <c r="I93" s="23"/>
       <c r="J93" s="16"/>
@@ -3911,166 +4010,178 @@
     </row>
     <row r="94" spans="1:11">
       <c r="E94" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F94" s="5">
         <v>4</v>
       </c>
-      <c r="G94" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="23"/>
       <c r="J94" s="16"/>
       <c r="K94" s="16"/>
     </row>
     <row r="95" spans="1:11">
+      <c r="A95" s="1">
+        <v>1</v>
+      </c>
       <c r="E95" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F95" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="23"/>
       <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="K95" s="11"/>
+    </row>
+    <row r="96" spans="1:11" ht="105">
       <c r="A96" s="1">
-        <v>1</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" s="5">
-        <v>9</v>
-      </c>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="11"/>
-    </row>
-    <row r="97" spans="1:11" ht="105">
+        <v>41</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F96" s="1">
+        <v>12</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H96" s="25"/>
+      <c r="I96" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="J96" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K96" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F97" s="1">
-        <v>12</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>122</v>
+        <v>2</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="H97" s="25"/>
-      <c r="I97" s="23" t="s">
+      <c r="I97" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J97" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="60">
+      <c r="A98" s="1">
+        <v>43</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" s="1">
+        <v>8</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H98" s="25"/>
+      <c r="I98" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="J97" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="K97" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1">
-        <v>42</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F98" s="1">
-        <v>2</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H98" s="25"/>
-      <c r="I98" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J98" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="K98" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="60">
+      <c r="J98" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K98" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="F99" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H99" s="25"/>
       <c r="I99" s="23" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="F100" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H100" s="25"/>
-      <c r="I100" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="J100" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="K100" s="16" t="s">
-        <v>150</v>
+      <c r="I100" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J100" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K100" s="21" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="1">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F101" s="1">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>127</v>
+        <v>2</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="H101" s="25"/>
-      <c r="I101" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="J101" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="K101" s="21" t="s">
-        <v>173</v>
+      <c r="I101" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J101" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K101" s="11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4081,188 +4192,166 @@
         <v>134</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F102" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H102" s="25"/>
-      <c r="I102" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J102" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="K102" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>109</v>
+      </c>
+      <c r="I102" s="23"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+    </row>
+    <row r="103" spans="1:11" ht="45">
       <c r="A103" s="1">
-        <v>46</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F103" s="1">
-        <v>1</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I103" s="23"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="16"/>
-    </row>
-    <row r="104" spans="1:11" ht="45">
+        <v>4</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H103" s="25"/>
+      <c r="I103" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J103" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="K103" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="F104" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H104" s="25"/>
-      <c r="I104" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="J104" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="K104" s="16" t="s">
-        <v>179</v>
+      <c r="I104" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J104" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F105" s="1">
         <v>1</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="H105" s="25"/>
       <c r="I105" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J105" s="19" t="s">
-        <v>225</v>
+        <v>180</v>
+      </c>
+      <c r="J105" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F106" s="1">
         <v>1</v>
       </c>
-      <c r="G106" s="15" t="s">
-        <v>85</v>
+      <c r="G106" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="H106" s="25"/>
       <c r="I106" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="J106" s="18" t="s">
-        <v>227</v>
+      <c r="J106" s="19" t="s">
+        <v>229</v>
       </c>
       <c r="K106" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F107" s="1">
         <v>1</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H107" s="25"/>
       <c r="I107" s="19" t="s">
         <v>180</v>
       </c>
       <c r="J107" s="19" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="K107" s="11" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F108" s="1">
         <v>1</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H108" s="25"/>
+        <v>117</v>
+      </c>
+      <c r="H108" s="26"/>
       <c r="I108" s="19" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J108" s="19" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K108" s="11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="1">
-        <v>52</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F109" s="1">
-        <v>1</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H109" s="26"/>
-      <c r="I109" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J109" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="K109" s="11" t="s">
-        <v>188</v>
-      </c>
+      <c r="I109" s="23"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
     </row>
     <row r="110" spans="1:11">
       <c r="I110" s="23"/>
@@ -4355,48 +4444,48 @@
       <c r="K127" s="16"/>
     </row>
     <row r="128" spans="9:11">
-      <c r="I128" s="23"/>
-      <c r="J128" s="16"/>
+      <c r="I128" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J128" s="19" t="s">
+        <v>169</v>
+      </c>
       <c r="K128" s="16"/>
     </row>
     <row r="129" spans="9:11">
-      <c r="I129" s="19" t="s">
+      <c r="I129" s="23"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
+    </row>
+    <row r="130" spans="9:11" ht="30">
+      <c r="I130" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="J129" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="K129" s="16"/>
-    </row>
-    <row r="130" spans="9:11">
-      <c r="I130" s="23"/>
-      <c r="J130" s="16"/>
+      <c r="J130" s="16" t="s">
+        <v>174</v>
+      </c>
       <c r="K130" s="16"/>
     </row>
-    <row r="131" spans="9:11" ht="30">
-      <c r="I131" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="J131" s="16" t="s">
-        <v>174</v>
-      </c>
+    <row r="131" spans="9:11">
+      <c r="I131" s="23"/>
+      <c r="J131" s="16"/>
       <c r="K131" s="16"/>
     </row>
     <row r="132" spans="9:11">
-      <c r="I132" s="23"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="16"/>
+      <c r="I132" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J132" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K132" s="11" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="133" spans="9:11">
-      <c r="I133" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="J133" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="K133" s="11" t="s">
-        <v>191</v>
-      </c>
+      <c r="I133" s="23"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
     </row>
     <row r="134" spans="9:11">
       <c r="I134" s="23"/>
@@ -4404,48 +4493,48 @@
       <c r="K134" s="16"/>
     </row>
     <row r="135" spans="9:11">
-      <c r="I135" s="23"/>
+      <c r="I135" s="23" t="s">
+        <v>192</v>
+      </c>
       <c r="J135" s="16"/>
       <c r="K135" s="16"/>
     </row>
     <row r="136" spans="9:11">
-      <c r="I136" s="23" t="s">
-        <v>192</v>
-      </c>
+      <c r="I136" s="23"/>
       <c r="J136" s="16"/>
       <c r="K136" s="16"/>
     </row>
     <row r="137" spans="9:11">
-      <c r="I137" s="23"/>
-      <c r="J137" s="16"/>
-      <c r="K137" s="16"/>
+      <c r="I137" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J137" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="138" spans="9:11">
-      <c r="I138" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="J138" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="K138" s="11" t="s">
+      <c r="I138" s="23"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="16"/>
+    </row>
+    <row r="139" spans="9:11">
+      <c r="I139" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="J139" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="K139" s="11" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="139" spans="9:11">
-      <c r="I139" s="23"/>
-      <c r="J139" s="16"/>
-      <c r="K139" s="16"/>
-    </row>
     <row r="140" spans="9:11">
-      <c r="I140" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="J140" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="K140" s="11" t="s">
-        <v>191</v>
-      </c>
+      <c r="I140" s="16"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="16"/>
     </row>
     <row r="141" spans="9:11">
       <c r="I141" s="16"/>
@@ -4462,18 +4551,15 @@
       <c r="J143" s="16"/>
       <c r="K143" s="16"/>
     </row>
-    <row r="144" spans="9:11">
-      <c r="I144" s="16"/>
-      <c r="J144" s="16"/>
-      <c r="K144" s="16"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B64:B65"/>
+  <mergeCells count="7">
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B63:B64"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/N-DEx_NIBRS XSLT/NIBRS_mapping.xlsx
+++ b/N-DEx_NIBRS XSLT/NIBRS_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-26360" yWindow="6340" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="3660" yWindow="2360" windowWidth="33960" windowHeight="17060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="NIBRS" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="219">
   <si>
     <t>TARGET_COLUMN</t>
   </si>
@@ -456,292 +456,9 @@
     <t xml:space="preserve">Valid Codes: F and N. Enter data into this field only if UCR Offense Code is 220 (Burglary). </t>
   </si>
   <si>
-    <t>j:OrganizationORIIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>ndexia:IncidentReport</t>
-  </si>
-  <si>
-    <t>niem-xsd:string</t>
-  </si>
-  <si>
-    <t>lexsdigest:EntityActivity/nc:Activity</t>
-  </si>
-  <si>
-    <t>nc:ActivityIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>nc:ActivityDate/nc:Date or nc:DateTime or nc:Year or nc:YearMonth</t>
-  </si>
-  <si>
-    <t>niem-xsd:date
-niem-xsd:dateTime
-niem-xsd:gYear
-niem-xsd:gYearMonth</t>
-  </si>
-  <si>
-    <t>ndexia:Arrest</t>
-  </si>
-  <si>
-    <t>j:ArrestCategoryCode</t>
-  </si>
-  <si>
-    <t>fbi:ArrestCategoryCodeType</t>
-  </si>
-  <si>
-    <t>ndexia:Incident</t>
-  </si>
-  <si>
-    <t>j:IncidentAugmentation/j:IncidentExceptionalClearanceCode</t>
-  </si>
-  <si>
-    <t>fbi:IncidentExceptionalClearanceCodeType</t>
-  </si>
-  <si>
-    <t>j:IncidentAugmentation/j:IncidentExceptionalClearanceDate/nc:Date or nc:DateTime or nc:Year or nc:YearMonth</t>
-  </si>
-  <si>
-    <t>ndexia:Offense</t>
-  </si>
-  <si>
-    <t>ndexia:OffenseBiasMotivationCode</t>
-  </si>
-  <si>
-    <t>ndexiacodes:BiasMotivationCodeType</t>
-  </si>
-  <si>
-    <t>ndexia:OffenseCompletedIndicator</t>
-  </si>
-  <si>
-    <t>niem-xsd:boolean</t>
-  </si>
-  <si>
-    <t>ndexia:CriminalActivityCategoryCode</t>
-  </si>
-  <si>
-    <t>ndexiacodes:CriminalActivityCategoryCodeType</t>
-  </si>
-  <si>
-    <t>j:IncidentForce/j:ForceCategoryCode</t>
-  </si>
-  <si>
-    <t>fbi:ForceCategoryCodeType</t>
-  </si>
-  <si>
-    <t>j:IncidentFactor/j:IncidentFactorCode</t>
-  </si>
-  <si>
-    <t>fbi:IncidentFactorCodeType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ndexia:OffenseEntryPoint/j:PassagePointMethodCode  </t>
-  </si>
-  <si>
-    <t>fbi:MethodOfEntryCodeType</t>
-  </si>
-  <si>
-    <t>lexsdigest:Associations</t>
-  </si>
-  <si>
-    <t>lexsdigest:OffenseLocationAssociation</t>
-  </si>
-  <si>
-    <t>j:IncidentStructuresEnteredQuantity</t>
-  </si>
-  <si>
-    <t>nc:QuantityType</t>
-  </si>
-  <si>
-    <t>ndexia:OffenseCode</t>
-  </si>
-  <si>
-    <t>ndexiacodes:OffenseCodeType</t>
-  </si>
-  <si>
-    <t>lexsdigest:OffenseVictimPersonAssociation or 
-lexsdigest:OffenseVictimOrganizationAssociation</t>
-  </si>
-  <si>
-    <t>lexsdigest:EntityPerson/lexsdigest:Person</t>
-  </si>
-  <si>
-    <t>nc:MeasurePointValueType</t>
-  </si>
-  <si>
-    <t>lexsdigest:EntityPerson/lexsdigest:Person
-lexsdigest:EntityPerson/lexsdigest:Person
-lexsdigest:EntityPerson/lexsdigest:Person</t>
-  </si>
-  <si>
-    <t>nc:PersonAgeMeasure/nc:MeasurePointValue
-nc:PersonAgeMeasure/nc:MeasureRangeValue/nc:RangeMaximumValue
-nc:PersonAgeMeasure/nc:MeasureRangeValue/nc:RangeMinimumValue</t>
-  </si>
-  <si>
-    <t>nc:MeasurePointValueType
-niem-xsd:decimal
-niem-xsd:decimal</t>
-  </si>
-  <si>
-    <t>ndexia:Person</t>
-  </si>
-  <si>
-    <t>nc:PersonResidentCode</t>
-  </si>
-  <si>
-    <t>fbi:ResidentCodeType</t>
-  </si>
-  <si>
-    <t>ndexia:ArrestSubject</t>
-  </si>
-  <si>
-    <t>ndexia:ArrestSubjectAugmentation/ndexia:ArresteeArmedWithCode</t>
-  </si>
-  <si>
-    <t>fbi:ArresteeWeaponCodeType</t>
-  </si>
-  <si>
-    <t>ndexia:ArrestSubjectAugmentation/ndexia:ArresteeClearanceIndicator</t>
-  </si>
-  <si>
-    <t>ndexia:ArrestSubjectAugmentation/ndexia:ArresteeJuvenileDispositionCode</t>
-  </si>
-  <si>
-    <t>ndexiacodes:JuvenileDispositionCodeType</t>
-  </si>
-  <si>
-    <t>lexsdigest:EntityPerson/j:ArrestSubject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nc:RoleOfPersonReference  </t>
-  </si>
-  <si>
-    <t>s:ReferenceType</t>
-  </si>
-  <si>
-    <t>PersonToPrpoertyAssociation</t>
-  </si>
-  <si>
-    <t>ndexia:ArrestSubjectAugmentation/j:ArrestSequenceID/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>lexsdigest:Entity*/j:Subject</t>
-  </si>
-  <si>
-    <t>ndexia:Victim</t>
-  </si>
-  <si>
-    <t>j:VictimJustifiableHomicideFactorCode</t>
-  </si>
-  <si>
-    <t>fbi:JustifiableHomicideFactorsCodeType</t>
-  </si>
-  <si>
-    <t>ndexia:VictimAugmentation/ndexia:VictimAggravatedAssaultHomicideFactorCode</t>
-  </si>
-  <si>
-    <t>ndexiacodes:AggravatedAssaultCircumstanceCodeType</t>
-  </si>
-  <si>
-    <t>ndexia:VictimInjury/ndexia:InjuryAugmentation/ndexia:InjuryCategoryCode</t>
-  </si>
-  <si>
-    <t>ndexiacodes:InjuryCategoryCodeType</t>
-  </si>
-  <si>
-    <t>lexsdigest:Entity*/j:Victim</t>
-  </si>
-  <si>
-    <t>nc:RoleOfPersonReference</t>
-  </si>
-  <si>
-    <t>j:VictimCategoryCode</t>
-  </si>
-  <si>
-    <t>fbi:VictimCategoryCodeType</t>
-  </si>
-  <si>
-    <t>ndexia:VictimAugmentation/ndexia:VictimSequenceNumberText</t>
-  </si>
-  <si>
-    <t>nc:TextType</t>
-  </si>
-  <si>
-    <t>ndexia:TangibleItem</t>
-  </si>
-  <si>
-    <t>ndexia:TangibleItemAugmentation/ndexia:ItemQuantityStatusValue/ndexia:ItemValue/nc:ItemValueAmount</t>
-  </si>
-  <si>
-    <t>nc:AmountType</t>
-  </si>
-  <si>
-    <t>ndexia:TangibleItemAugmentation/ndexia:ItemQuantityStatusValue/ndexia:ItemStatus/ndexia:ItemStatusAugmentation/ndexia:ItemStatusCode</t>
-  </si>
-  <si>
-    <t>ndexiacodes:ItemStatusCodeType</t>
-  </si>
-  <si>
-    <t>ndexia:TangibleItemAugmentation/ndexia:ItemQuantityStatusValue/ndexia:ItemStatus/nc:StatusDate/nc:Date or nc:DateTime or nc:Year or nc:YearMonth</t>
-  </si>
-  <si>
-    <t>ndexia:Drug</t>
-  </si>
-  <si>
-    <t>ndexia:DrugAugmentation/ndexia:ItemQuantityStatusValue/nc:SubstanceQuantityMeasure/nc:MeasurePointValue</t>
-  </si>
-  <si>
-    <t>ndexia:DrugAugmentation/ndexia:ItemQuantityStatusValue/nc:SubstanceQuantityMeasure/nc:SubstanceUnitCode</t>
-  </si>
-  <si>
-    <t>fbi:DrugMeasurementCodeType</t>
-  </si>
-  <si>
-    <t>ndexia:Location</t>
-  </si>
-  <si>
-    <t>ndexia:LocationCategoryCode</t>
-  </si>
-  <si>
-    <t>ndexiacodes:LocationCategoryCodeType</t>
-  </si>
-  <si>
-    <t>(See Incident Date)</t>
-  </si>
-  <si>
-    <t>lexsdigest:EntityDrug/nc:Drug</t>
-  </si>
-  <si>
-    <t>j:DrugDEACode</t>
-  </si>
-  <si>
-    <t>dea:DrugCategoryCodeType</t>
-  </si>
-  <si>
-    <t>nc:PersonSexCode</t>
-  </si>
-  <si>
-    <t>fbi:SEXCodeType</t>
-  </si>
-  <si>
-    <t>ndexia:PersonAugmentation/ndexia:PersonRaceCode</t>
-  </si>
-  <si>
-    <t>ndexiacodes:RACCodeType</t>
-  </si>
-  <si>
-    <t>nc:PersonEthnicityCode</t>
-  </si>
-  <si>
-    <t>fbi:EthnicityCodeType</t>
-  </si>
-  <si>
     <t>Value/Description</t>
   </si>
   <si>
-    <t>/nr-doc:NIBRS_Report/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/nibrs-ext:NIBRS_Report/nibrs-ext:NIBRSSegment/nibrs-ext:SegmentLevelNumber</t>
-  </si>
-  <si>
     <t>AdditionalJustifiableHomicideCircumstances</t>
   </si>
   <si>
@@ -754,31 +471,7 @@
     <t>Max Occurences</t>
   </si>
   <si>
-    <t>nibrs-ext</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Left-justified with blank right-fill.</t>
-  </si>
-  <si>
-    <t>ndexia:Subject</t>
-  </si>
-  <si>
-    <t>ndexia:SubjectAugmentation/ndexia:SubjectSequenceNumberText</t>
-  </si>
-  <si>
-    <t>ndexia:ArrestSubjectAugmentation/j:ArrestSubjectCountCode</t>
-  </si>
-  <si>
-    <t>fbi:MultipleArresteeSegmentsCodeType</t>
   </si>
   <si>
     <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Organization[ndexia:OrganizationAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityOrganization/nc20:Organization/@s20:id]/j40:OrganizationAugmentation/j40:OrganizationORIIdentification/nc20:IdentificationID</t>
@@ -896,12 +589,6 @@
     <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Person[ndexia:PersonAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson[j40:Victim/nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/lexsdigest:Person/@s20:id]/nc20:PersonEthnicityCode</t>
   </si>
   <si>
-    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Person[ndexia:PersonAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson[j40:Victim/nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/lexsdigest:Person/@s20:id]/nc20:PersonResidentCode</t>
-  </si>
-  <si>
-    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Subject[ndexia:SubjectAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson[j40:IncidentSubject/nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/lexsdigest:Person/@s20:id]</t>
-  </si>
-  <si>
     <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:TangibleItem[ndexia:TangibleItemAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityTangibleItem/nc20:TangibleItem/@s20:id]/ndexia:TangibleItemAugmentation/ndexia:ItemQuantityStatusValue/nc20:ItemQuantity</t>
   </si>
   <si>
@@ -954,26 +641,84 @@
     <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Drug[ndexia:DrugAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityDrug/nc20:Drug/@s20:id]/ndexia:DrugAugmentation/ndexia:ItemQuantityStatusValue/nc20:SubstanceQuantityMeasure/nc20:SubstanceUnitCode</t>
   </si>
   <si>
-    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Victim
-[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial
-[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]
-/@s20:id]
-/ndexia:VictimAugmentation/ndexia:VictimSequenceNumberText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:Associations/lexsdigest:OffenseVictimPersonAssociation[nc20:ActivityReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityActivity/nc20:Activity/@s20:id][nc20:PersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonAgeMeasure/nc20:MeasurePointValue
+lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonAgeMeasure/nc20:MeasureRangeValue/nc20:RangeMinimumValue
+lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonAgeMeasure/nc20:MeasureRangeValue/nc20:RangeMaximumValue</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonAgeMeasure/nc20:MeasureRangeValue/nc20:RangeMaximumValue</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:Victim/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonAgeMeasure/nc20:MeasurePointValue
+lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:Victim/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonAgeMeasure/nc20:MeasureRangeValue/nc20:RangeMinimumValue
+lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:Victim/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonAgeMeasure/nc20:MeasureRangeValue/nc20:RangeMaximumValue</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonSexCode</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:Victim/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonSexCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:Associations/lexsdigest:OffenseVictimPersonAssociation
+[nc20:PersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]
+[nc20:ActivityReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityActivity/nc20:Activity/@s20:id]
 </t>
   </si>
   <si>
-    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonAgeMeasure/nc20:MeasurePointValue
-lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonAgeMeasure/nc20:MeasurePointValue</t>
+    <t>[nc20:PersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]</t>
+  </si>
+  <si>
+    <t>[nc20:ActivityReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityActivity/nc20:Activity/@s20:id]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:Associations/lexsdigest:SubjectVictimAssociation
+[lexsdigest:SubjectPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:IncidentSubject/nc20:RoleOfPersonReference/@s20:ref]
+[lexsdigest:VictimPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]
+</t>
+  </si>
+  <si>
+    <t>[lexsdigest:SubjectPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:IncidentSubject/nc20:RoleOfPersonReference/@s20:ref]</t>
+  </si>
+  <si>
+    <t>[lexsdigest:VictimPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:Associations/lexsdigest:SubjectVictimAssociation
+[lexsdigest:SubjectPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:IncidentSubject/nc20:RoleOfPersonReference/@s20:ref]
+[lexsdigest:VictimPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:Victim/nc20:RoleOfPersonReference/@s20:ref]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:SubjectVictimAssociation[ndexia:SubjectVictimAssociationAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:Associations/lexsdigest:SubjectVictimAssociation/@s20:id]
+</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:VictimAugmentation/ndexia:VictimSequenceNumberText</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Subject[ndexia:SubjectAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:IncidentSubject[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:SubjectAugmentation/ndexia:SubjectSequenceNumberText</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:IncidentSubject/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonSexCode</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial/j40:EnforcementOfficialAssignmentCategoryCode</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityActivity/nc20:Activity[nc20:ActivityCategoryText='Arrest']/nc20:ActivityDate/nc20:Date</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityActivity/nc20:Activity[nc20:ActivityCategoryText='Arrest']/nc20:ActivityIdentification/nc20:IdentificationID</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:ArrestSubject[ndexia:ArrestSubjectAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:ArrestSubject[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:ArrestSubjectAugmentation/j40:ArrestSequenceID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1011,25 +756,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1041,9 +767,10 @@
       <name val="TimesNewRomanPSMT"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -1083,7 +810,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1157,7 +884,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1232,7 +967,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1264,12 +999,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1279,40 +1008,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="73" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1321,23 +1023,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1374,6 +1082,7 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
@@ -1447,6 +1156,14 @@
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1483,7 +1200,6 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1818,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L143"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1834,19 +1550,15 @@
     <col min="6" max="6" width="13.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="68.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="149.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="89.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="46.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="59" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="36">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="36">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>43</v>
@@ -1861,13 +1573,13 @@
         <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="30">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="30">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
@@ -1878,31 +1590,19 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="45">
+    </row>
+    <row r="3" spans="1:8" ht="45">
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:8">
       <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1910,14 +1610,9 @@
         <v>4</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:12" ht="75">
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" ht="60">
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1927,19 +1622,11 @@
       <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="45">
+      <c r="H5" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1950,20 +1637,11 @@
         <v>9</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="60">
+      <c r="H6" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1976,20 +1654,11 @@
       <c r="G7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="60">
+      <c r="H7" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -2002,20 +1671,11 @@
       <c r="G8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30">
+      <c r="H8" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30">
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2025,14 +1685,9 @@
       <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:12" ht="90">
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="90">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -2045,14 +1700,9 @@
       <c r="G10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:12" ht="45">
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="45">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -2065,20 +1715,11 @@
       <c r="G11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="60">
+      <c r="H11" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -2091,20 +1732,11 @@
       <c r="G12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="60">
+      <c r="H12" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -2120,20 +1752,11 @@
       <c r="G13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="H13" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="C14" s="1">
         <v>2</v>
       </c>
@@ -2150,11 +1773,8 @@
         <v>45</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:12" ht="45">
+    </row>
+    <row r="15" spans="1:8" ht="45">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -2167,20 +1787,11 @@
       <c r="G15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="60">
+      <c r="H15" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -2196,20 +1807,11 @@
       <c r="G16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="45">
+      <c r="H16" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45">
       <c r="A17" s="1">
         <v>9</v>
       </c>
@@ -2222,20 +1824,11 @@
       <c r="G17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="60">
+      <c r="H17" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -2248,20 +1841,11 @@
       <c r="G18" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="45">
+      <c r="H18" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45">
       <c r="A19" s="1">
         <v>11</v>
       </c>
@@ -2274,20 +1858,11 @@
       <c r="G19" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="60">
+      <c r="H19" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60">
       <c r="A20" s="1">
         <v>12</v>
       </c>
@@ -2303,24 +1878,15 @@
       <c r="G20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="60">
+      <c r="H20" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60">
       <c r="A21" s="1">
         <v>13</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="17" t="s">
         <v>130</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -2332,35 +1898,23 @@
       <c r="G21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="29" customFormat="1" ht="60">
+      <c r="H21" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="60">
       <c r="A22" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>264</v>
+        <v>164</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" ht="60">
+      <c r="H22" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
@@ -2373,20 +1927,11 @@
       <c r="G23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="H23" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="C24" s="1">
         <v>3</v>
       </c>
@@ -2403,11 +1948,8 @@
         <v>45</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" ht="60">
+    </row>
+    <row r="25" spans="1:8" ht="60">
       <c r="A25" s="1">
         <v>14</v>
       </c>
@@ -2420,24 +1962,15 @@
       <c r="G25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="75">
+      <c r="H25" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="75">
       <c r="A26" s="1">
         <v>15</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="23" t="s">
         <v>131</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2449,20 +1982,15 @@
       <c r="G26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" ht="45">
+      <c r="H26" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45">
       <c r="A27" s="1">
         <v>16</v>
       </c>
-      <c r="B27" s="31"/>
+      <c r="B27" s="23"/>
       <c r="E27" s="1" t="s">
         <v>18</v>
       </c>
@@ -2472,24 +2000,15 @@
       <c r="G27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="48">
+      <c r="H27" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45">
       <c r="A28" s="1">
         <v>17</v>
       </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="23"/>
       <c r="E28" s="1" t="s">
         <v>19</v>
       </c>
@@ -2499,20 +2018,11 @@
       <c r="G28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="45">
+      <c r="H28" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45">
       <c r="A29" s="1">
         <v>18</v>
       </c>
@@ -2525,16 +2035,11 @@
       <c r="G29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" ht="45">
+      <c r="H29" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="45">
       <c r="A30" s="1">
         <v>19</v>
       </c>
@@ -2547,20 +2052,15 @@
       <c r="G30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="H30" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>20</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="23" t="s">
         <v>132</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -2572,24 +2072,15 @@
       <c r="G31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30">
+      <c r="H31" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30">
       <c r="A32" s="1">
         <v>21</v>
       </c>
-      <c r="B32" s="31"/>
+      <c r="B32" s="23"/>
       <c r="E32" s="1" t="s">
         <v>21</v>
       </c>
@@ -2599,21 +2090,12 @@
       <c r="G32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="75">
-      <c r="B33" s="31"/>
+      <c r="H32" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="47" customHeight="1">
+      <c r="B33" s="23"/>
       <c r="E33" s="1" t="s">
         <v>22</v>
       </c>
@@ -2623,18 +2105,13 @@
       <c r="G33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="31"/>
-      <c r="I33" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="1:11" ht="30">
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>22</v>
       </c>
-      <c r="B34" s="31"/>
+      <c r="B34" s="23"/>
       <c r="E34" s="1" t="s">
         <v>74</v>
       </c>
@@ -2644,25 +2121,16 @@
       <c r="G34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H34" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="H34" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="C35" s="1">
         <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>12</v>
@@ -2673,13 +2141,10 @@
       <c r="G35" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-    </row>
-    <row r="36" spans="1:11" ht="165">
-      <c r="A36" s="32">
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:8" ht="60">
+      <c r="A36" s="25">
         <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2691,21 +2156,12 @@
       <c r="G36" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H36" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="105">
-      <c r="A37" s="32">
+      <c r="H36" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="129" customHeight="1">
+      <c r="A37" s="25">
         <v>24</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2720,21 +2176,12 @@
       <c r="G37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H37" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="60">
-      <c r="A38" s="32">
+      <c r="H37" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="60">
+      <c r="A38" s="25">
         <v>25</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -2746,37 +2193,25 @@
       <c r="G38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="28" customFormat="1">
-      <c r="A39" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:11" ht="105">
-      <c r="A40" s="32">
+      <c r="H38" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="17" customFormat="1">
+      <c r="A39" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="1:8" ht="165">
+      <c r="A40" s="25">
         <v>26</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="F40" s="1">
         <v>4</v>
@@ -2784,21 +2219,12 @@
       <c r="G40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H40" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="J40" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="32">
+      <c r="H40" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45">
+      <c r="A41" s="25">
         <v>27</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -2810,19 +2236,12 @@
       <c r="G41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="60">
-      <c r="A42" s="32">
+      <c r="H41" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="60">
+      <c r="A42" s="25">
         <v>28</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -2834,21 +2253,12 @@
       <c r="G42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="J42" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="60">
-      <c r="A43" s="32">
+      <c r="H42" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="60">
+      <c r="A43" s="25">
         <v>29</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -2860,21 +2270,12 @@
       <c r="G43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H43" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="J43" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="60">
-      <c r="A44" s="32">
+      <c r="H43" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="60">
+      <c r="A44" s="25">
         <v>30</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -2886,21 +2287,12 @@
       <c r="G44" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="60">
-      <c r="A45" s="32">
+      <c r="H44" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="60">
+      <c r="A45" s="25">
         <v>31</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2915,25 +2307,16 @@
       <c r="G45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H45" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="60">
-      <c r="A46" s="32">
+      <c r="H45" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="60">
+      <c r="A46" s="25">
         <v>32</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -2941,21 +2324,12 @@
       <c r="G46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="60">
-      <c r="A47" s="32">
+      <c r="H46" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="60">
+      <c r="A47" s="25">
         <v>33</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2970,24 +2344,15 @@
       <c r="G47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H47" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J47" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="60">
-      <c r="A48" s="32">
+      <c r="H47" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="150">
+      <c r="A48" s="25">
         <v>34</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="23" t="s">
         <v>136</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -2999,36 +2364,30 @@
       <c r="G48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-    </row>
-    <row r="49" spans="1:11" ht="30">
-      <c r="A49" s="32">
+      <c r="H48" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="75">
+      <c r="A49" s="25">
         <v>35</v>
       </c>
-      <c r="B49" s="31"/>
+      <c r="B49" s="23"/>
       <c r="E49" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H49" s="25"/>
-      <c r="I49" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-    </row>
-    <row r="50" spans="1:11" s="29" customFormat="1">
-      <c r="C50" s="29">
+      <c r="H49" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="18" customFormat="1" ht="30">
+      <c r="C50" s="18">
         <v>4</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="5" t="s">
@@ -3040,354 +2399,253 @@
       <c r="G50" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-    </row>
-    <row r="51" spans="1:11" s="29" customFormat="1" ht="60">
-      <c r="A51" s="29">
+      <c r="H50" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="18" customFormat="1" ht="60">
+      <c r="A51" s="18">
         <v>23</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F51" s="18">
         <v>3</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H51" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J51" s="18" t="s">
+      <c r="H51" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="18" customFormat="1" ht="59" customHeight="1">
+      <c r="A52" s="18">
+        <v>24</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" s="18">
+        <v>3</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="K51" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="29" customFormat="1">
-      <c r="A52" s="29">
-        <v>24</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="29">
-        <v>3</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J52" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="K52" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="29" customFormat="1" ht="60">
-      <c r="A53" s="29">
+    </row>
+    <row r="53" spans="1:8" s="18" customFormat="1" ht="60">
+      <c r="A53" s="18">
         <v>25</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F53" s="29">
-        <v>1</v>
-      </c>
-      <c r="G53" s="29" t="s">
+      <c r="F53" s="18">
+        <v>1</v>
+      </c>
+      <c r="G53" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H53" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J53" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="29" customFormat="1">
-      <c r="A54" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="11"/>
-    </row>
-    <row r="55" spans="1:11" s="29" customFormat="1" ht="45">
-      <c r="A55" s="29">
+      <c r="H53" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="18" customFormat="1" ht="30">
+      <c r="A54" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="18" customFormat="1" ht="165">
+      <c r="A55" s="18">
         <v>26</v>
       </c>
-      <c r="E55" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="F55" s="29">
+      <c r="E55" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" s="18">
         <v>4</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="J55" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="29" customFormat="1">
-      <c r="A56" s="29">
+      <c r="H55" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="18" customFormat="1" ht="30">
+      <c r="A56" s="18">
         <v>27</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F56" s="29">
-        <v>1</v>
-      </c>
-      <c r="G56" s="29" t="s">
+      <c r="F56" s="18">
+        <v>1</v>
+      </c>
+      <c r="G56" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J56" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="29" customFormat="1" ht="60">
-      <c r="A57" s="29">
+      <c r="H56" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="18" customFormat="1" ht="60">
+      <c r="A57" s="18">
         <v>28</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="29">
-        <v>1</v>
-      </c>
-      <c r="G57" s="29" t="s">
+      <c r="F57" s="18">
+        <v>1</v>
+      </c>
+      <c r="G57" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="I57" s="19" t="s">
+      <c r="H57" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="J57" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="29" customFormat="1" ht="60">
-      <c r="A58" s="29">
+    </row>
+    <row r="58" spans="1:8" s="18" customFormat="1" ht="60">
+      <c r="A58" s="18">
         <v>29</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F58" s="29">
-        <v>1</v>
-      </c>
-      <c r="G58" s="29" t="s">
+      <c r="F58" s="18">
+        <v>1</v>
+      </c>
+      <c r="G58" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H58" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="I58" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="J58" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="29" customFormat="1" ht="60">
-      <c r="A59" s="29">
+      <c r="H58" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="18" customFormat="1" ht="45">
+      <c r="A59" s="18">
         <v>30</v>
       </c>
-      <c r="E59" s="29" t="s">
+      <c r="E59" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F59" s="29">
-        <v>1</v>
-      </c>
-      <c r="G59" s="29" t="s">
+      <c r="F59" s="18">
+        <v>1</v>
+      </c>
+      <c r="G59" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="H59" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="I59" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="J59" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="K59" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="29" customFormat="1" ht="60">
-      <c r="A60" s="29">
+      <c r="H59" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="18" customFormat="1" ht="60">
+      <c r="A60" s="18">
         <v>31</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E60" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F60" s="29">
+      <c r="F60" s="18">
         <v>2</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G60" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H60" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="I60" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J60" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="29" customFormat="1" ht="60">
-      <c r="A61" s="29">
+      <c r="H60" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="18" customFormat="1" ht="60">
+      <c r="A61" s="18">
         <v>32</v>
       </c>
-      <c r="E61" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="F61" s="29">
-        <v>1</v>
-      </c>
-      <c r="G61" s="29" t="s">
+      <c r="E61" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="18">
+        <v>1</v>
+      </c>
+      <c r="G61" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H61" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="I61" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J61" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="K61" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="29" customFormat="1" ht="60">
-      <c r="A62" s="29">
+      <c r="H61" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="18" customFormat="1" ht="60">
+      <c r="A62" s="18">
         <v>33</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E62" s="29" t="s">
+      <c r="E62" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="29">
-        <v>1</v>
-      </c>
-      <c r="G62" s="29" t="s">
+      <c r="F62" s="18">
+        <v>1</v>
+      </c>
+      <c r="G62" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H62" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="I62" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J62" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="29" customFormat="1" ht="60">
-      <c r="A63" s="29">
+      <c r="H62" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="18" customFormat="1" ht="105">
+      <c r="A63" s="18">
         <v>34</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="E63" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F63" s="29">
+      <c r="F63" s="18">
         <v>2</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H63" s="25"/>
-      <c r="I63" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-    </row>
-    <row r="64" spans="1:11" s="29" customFormat="1" ht="30">
-      <c r="A64" s="29">
+      <c r="H63" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="18" customFormat="1" ht="75">
+      <c r="A64" s="18">
         <v>35</v>
       </c>
-      <c r="B64" s="31"/>
-      <c r="E64" s="29" t="s">
+      <c r="B64" s="23"/>
+      <c r="E64" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G64" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="H64" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30">
       <c r="C65" s="1">
         <v>5</v>
       </c>
@@ -3403,12 +2661,11 @@
       <c r="G65" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H65" s="5"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-    </row>
-    <row r="66" spans="1:11" ht="75">
+      <c r="H65" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="75">
       <c r="A66" s="1">
         <v>36</v>
       </c>
@@ -3421,20 +2678,11 @@
       <c r="G66" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H66" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="I66" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="J66" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="45">
+      <c r="H66" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="45">
       <c r="A67" s="1">
         <v>37</v>
       </c>
@@ -3447,18 +2695,11 @@
       <c r="G67" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H67" s="25"/>
-      <c r="I67" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="H67" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="45">
       <c r="A68" s="1">
         <v>38</v>
       </c>
@@ -3471,18 +2712,11 @@
       <c r="G68" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H68" s="25"/>
-      <c r="I68" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J68" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="K68" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="60">
+      <c r="H68" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="60">
       <c r="A69" s="1">
         <v>39</v>
       </c>
@@ -3495,32 +2729,22 @@
       <c r="G69" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H69" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="I69" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="K69" s="16"/>
-    </row>
-    <row r="70" spans="1:11" s="29" customFormat="1" ht="60">
-      <c r="A70" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="I70" s="18"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="16"/>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="H69" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="18" customFormat="1" ht="60">
+      <c r="A70" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="C71" s="1">
         <v>6</v>
       </c>
@@ -3537,11 +2761,8 @@
         <v>45</v>
       </c>
       <c r="H71" s="5"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-    </row>
-    <row r="72" spans="1:11">
+    </row>
+    <row r="72" spans="1:8" ht="60">
       <c r="A72" s="1">
         <v>40</v>
       </c>
@@ -3551,18 +2772,11 @@
       <c r="F72" s="1">
         <v>2</v>
       </c>
-      <c r="H72" s="25"/>
-      <c r="I72" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="K72" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="H72" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30">
       <c r="A73" s="1">
         <v>41</v>
       </c>
@@ -3572,21 +2786,14 @@
       <c r="F73" s="1">
         <v>12</v>
       </c>
-      <c r="G73" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="J73" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="K73" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="60">
+      <c r="G73" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30">
       <c r="A74" s="1">
         <v>42</v>
       </c>
@@ -3596,18 +2803,11 @@
       <c r="F74" s="1">
         <v>8</v>
       </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="J74" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="K74" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="H74" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>43</v>
       </c>
@@ -3617,18 +2817,9 @@
       <c r="F75" s="1">
         <v>1</v>
       </c>
-      <c r="H75" s="25"/>
-      <c r="I75" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="J75" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="K75" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="H75" s="19"/>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>44</v>
       </c>
@@ -3638,21 +2829,12 @@
       <c r="F76" s="1">
         <v>1</v>
       </c>
-      <c r="G76" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="H76" s="25"/>
-      <c r="I76" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J76" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="G76" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H76" s="19"/>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>45</v>
       </c>
@@ -3662,22 +2844,13 @@
       <c r="F77" s="1">
         <v>3</v>
       </c>
-      <c r="H77" s="25"/>
-      <c r="I77" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="J77" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="K77" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="H77" s="19"/>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>46</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="23" t="s">
         <v>134</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -3689,22 +2862,13 @@
       <c r="G78" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H78" s="25"/>
-      <c r="I78" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J78" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="K78" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="H78" s="19"/>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>46</v>
       </c>
-      <c r="B79" s="31"/>
+      <c r="B79" s="23"/>
       <c r="E79" s="1" t="s">
         <v>63</v>
       </c>
@@ -3714,14 +2878,9 @@
       <c r="G79" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H79" s="25"/>
-      <c r="I79" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-    </row>
-    <row r="80" spans="1:11" ht="174" customHeight="1">
+      <c r="H79" s="19"/>
+    </row>
+    <row r="80" spans="1:8" ht="174" customHeight="1">
       <c r="A80" s="1">
         <v>47</v>
       </c>
@@ -3734,18 +2893,9 @@
       <c r="G80" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H80" s="25"/>
-      <c r="I80" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="J80" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="K80" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="H80" s="14"/>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>48</v>
       </c>
@@ -3758,18 +2908,9 @@
       <c r="G81" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H81" s="25"/>
-      <c r="I81" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J81" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="K81" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="60">
+      <c r="H81" s="14"/>
+    </row>
+    <row r="82" spans="1:8" ht="60">
       <c r="A82" s="1">
         <v>49</v>
       </c>
@@ -3782,20 +2923,11 @@
       <c r="G82" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H82" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="I82" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="J82" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="K82" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="60">
+      <c r="H82" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="60">
       <c r="A83" s="1">
         <v>50</v>
       </c>
@@ -3808,20 +2940,11 @@
       <c r="G83" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H83" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="I83" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="J83" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="K83" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="60">
+      <c r="H83" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="60">
       <c r="A84" s="1">
         <v>51</v>
       </c>
@@ -3834,20 +2957,11 @@
       <c r="G84" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H84" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="I84" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="J84" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="K84" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="H84" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>52</v>
       </c>
@@ -3860,18 +2974,9 @@
       <c r="G85" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H85" s="26"/>
-      <c r="I85" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J85" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="K85" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="1:8">
       <c r="E86" s="1" t="s">
         <v>32</v>
       </c>
@@ -3881,18 +2986,9 @@
       <c r="G86" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H86" s="25"/>
-      <c r="I86" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J86" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="K86" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="H86" s="14"/>
+    </row>
+    <row r="87" spans="1:8">
       <c r="E87" s="1" t="s">
         <v>34</v>
       </c>
@@ -3902,18 +2998,9 @@
       <c r="G87" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H87" s="25"/>
-      <c r="I87" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="J87" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="K87" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="30">
+      <c r="H87" s="14"/>
+    </row>
+    <row r="88" spans="1:8" ht="30">
       <c r="A88" s="8" t="s">
         <v>120</v>
       </c>
@@ -3924,11 +3011,8 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="23"/>
-    </row>
-    <row r="89" spans="1:11" ht="18">
+    </row>
+    <row r="89" spans="1:8" ht="18">
       <c r="A89" s="2"/>
       <c r="C89" s="1">
         <v>7</v>
@@ -3946,11 +3030,8 @@
         <v>45</v>
       </c>
       <c r="H89" s="5"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-    </row>
-    <row r="90" spans="1:11">
+    </row>
+    <row r="90" spans="1:8">
       <c r="E90" s="5" t="s">
         <v>2</v>
       </c>
@@ -3961,11 +3042,8 @@
         <v>7</v>
       </c>
       <c r="H90" s="5"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-    </row>
-    <row r="91" spans="1:11">
+    </row>
+    <row r="91" spans="1:8">
       <c r="E91" s="5" t="s">
         <v>47</v>
       </c>
@@ -3976,11 +3054,8 @@
         <v>137</v>
       </c>
       <c r="H91" s="7"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-    </row>
-    <row r="92" spans="1:11">
+    </row>
+    <row r="92" spans="1:8">
       <c r="E92" s="5" t="s">
         <v>3</v>
       </c>
@@ -3989,11 +3064,8 @@
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
-    </row>
-    <row r="93" spans="1:11">
+    </row>
+    <row r="93" spans="1:8">
       <c r="E93" s="5" t="s">
         <v>4</v>
       </c>
@@ -4004,11 +3076,8 @@
         <v>48</v>
       </c>
       <c r="H93" s="5"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
-    </row>
-    <row r="94" spans="1:11">
+    </row>
+    <row r="94" spans="1:8">
       <c r="E94" s="5" t="s">
         <v>5</v>
       </c>
@@ -4017,11 +3086,8 @@
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-    </row>
-    <row r="95" spans="1:11">
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>1</v>
       </c>
@@ -4033,11 +3099,8 @@
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="11"/>
-    </row>
-    <row r="96" spans="1:11" ht="105">
+    </row>
+    <row r="96" spans="1:8" ht="105">
       <c r="A96" s="1">
         <v>41</v>
       </c>
@@ -4050,18 +3113,9 @@
       <c r="G96" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H96" s="25"/>
-      <c r="I96" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="J96" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="K96" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="H96" s="14"/>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>42</v>
       </c>
@@ -4074,18 +3128,9 @@
       <c r="G97" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H97" s="25"/>
-      <c r="I97" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J97" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="K97" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="60">
+      <c r="H97" s="14"/>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>43</v>
       </c>
@@ -4098,18 +3143,9 @@
       <c r="G98" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H98" s="25"/>
-      <c r="I98" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="J98" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="K98" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="H98" s="21"/>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>44</v>
       </c>
@@ -4122,18 +3158,9 @@
       <c r="G99" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H99" s="25"/>
-      <c r="I99" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="J99" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="K99" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="H99" s="14"/>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>45</v>
       </c>
@@ -4146,18 +3173,9 @@
       <c r="G100" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H100" s="25"/>
-      <c r="I100" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="J100" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="K100" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="H100" s="14"/>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>46</v>
       </c>
@@ -4173,18 +3191,9 @@
       <c r="G101" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H101" s="25"/>
-      <c r="I101" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J101" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="K101" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="H101" s="14"/>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>46</v>
       </c>
@@ -4200,11 +3209,8 @@
       <c r="G102" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I102" s="23"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
-    </row>
-    <row r="103" spans="1:11" ht="45">
+    </row>
+    <row r="103" spans="1:8" ht="45">
       <c r="A103" s="1">
         <v>47</v>
       </c>
@@ -4214,21 +3220,12 @@
       <c r="F103" s="1">
         <v>4</v>
       </c>
-      <c r="G103" s="15" t="s">
+      <c r="G103" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="H103" s="25"/>
-      <c r="I103" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="J103" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="K103" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="H103" s="14"/>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>48</v>
       </c>
@@ -4238,21 +3235,12 @@
       <c r="F104" s="1">
         <v>1</v>
       </c>
-      <c r="G104" s="15" t="s">
+      <c r="G104" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H104" s="25"/>
-      <c r="I104" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J104" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="K104" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="H104" s="14"/>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>49</v>
       </c>
@@ -4262,21 +3250,12 @@
       <c r="F105" s="1">
         <v>1</v>
       </c>
-      <c r="G105" s="15" t="s">
+      <c r="G105" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H105" s="25"/>
-      <c r="I105" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="J105" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="K105" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="H105" s="14"/>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>50</v>
       </c>
@@ -4289,18 +3268,9 @@
       <c r="G106" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H106" s="25"/>
-      <c r="I106" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="J106" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="K106" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="H106" s="14"/>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>51</v>
       </c>
@@ -4313,18 +3283,9 @@
       <c r="G107" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H107" s="25"/>
-      <c r="I107" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="J107" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="K107" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="H107" s="14"/>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>52</v>
       </c>
@@ -4337,229 +3298,17 @@
       <c r="G108" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H108" s="26"/>
-      <c r="I108" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J108" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="K108" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="I109" s="23"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="16"/>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="I110" s="23"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="16"/>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="I111" s="23"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="16"/>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="I112" s="23"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="16"/>
-    </row>
-    <row r="113" spans="9:11">
-      <c r="I113" s="23"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="16"/>
-    </row>
-    <row r="114" spans="9:11">
-      <c r="I114" s="23"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="16"/>
-    </row>
-    <row r="115" spans="9:11">
-      <c r="I115" s="23"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="16"/>
-    </row>
-    <row r="116" spans="9:11">
-      <c r="I116" s="23"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="16"/>
-    </row>
-    <row r="117" spans="9:11">
-      <c r="I117" s="23"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="16"/>
-    </row>
-    <row r="118" spans="9:11">
-      <c r="I118" s="23"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="16"/>
-    </row>
-    <row r="119" spans="9:11">
-      <c r="I119" s="23"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="16"/>
-    </row>
-    <row r="120" spans="9:11">
-      <c r="I120" s="23"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="16"/>
-    </row>
-    <row r="121" spans="9:11">
-      <c r="I121" s="23"/>
-      <c r="J121" s="16"/>
-      <c r="K121" s="16"/>
-    </row>
-    <row r="122" spans="9:11">
-      <c r="I122" s="23"/>
-      <c r="J122" s="16"/>
-      <c r="K122" s="16"/>
-    </row>
-    <row r="123" spans="9:11">
-      <c r="I123" s="23"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="16"/>
-    </row>
-    <row r="124" spans="9:11">
-      <c r="I124" s="23"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="16"/>
-    </row>
-    <row r="125" spans="9:11">
-      <c r="I125" s="23"/>
-      <c r="J125" s="16"/>
-      <c r="K125" s="16"/>
-    </row>
-    <row r="126" spans="9:11">
-      <c r="I126" s="23"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="16"/>
-    </row>
-    <row r="127" spans="9:11">
-      <c r="I127" s="23"/>
-      <c r="J127" s="16"/>
-      <c r="K127" s="16"/>
-    </row>
-    <row r="128" spans="9:11">
-      <c r="I128" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="J128" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="K128" s="16"/>
-    </row>
-    <row r="129" spans="9:11">
-      <c r="I129" s="23"/>
-      <c r="J129" s="16"/>
-      <c r="K129" s="16"/>
-    </row>
-    <row r="130" spans="9:11" ht="30">
-      <c r="I130" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="J130" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="K130" s="16"/>
-    </row>
-    <row r="131" spans="9:11">
-      <c r="I131" s="23"/>
-      <c r="J131" s="16"/>
-      <c r="K131" s="16"/>
-    </row>
-    <row r="132" spans="9:11">
-      <c r="I132" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="J132" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="K132" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="133" spans="9:11">
-      <c r="I133" s="23"/>
-      <c r="J133" s="16"/>
-      <c r="K133" s="16"/>
-    </row>
-    <row r="134" spans="9:11">
-      <c r="I134" s="23"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="16"/>
-    </row>
-    <row r="135" spans="9:11">
-      <c r="I135" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="J135" s="16"/>
-      <c r="K135" s="16"/>
-    </row>
-    <row r="136" spans="9:11">
-      <c r="I136" s="23"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="16"/>
-    </row>
-    <row r="137" spans="9:11">
-      <c r="I137" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="J137" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="K137" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="138" spans="9:11">
-      <c r="I138" s="23"/>
-      <c r="J138" s="16"/>
-      <c r="K138" s="16"/>
-    </row>
-    <row r="139" spans="9:11">
-      <c r="I139" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="J139" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="K139" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="140" spans="9:11">
-      <c r="I140" s="16"/>
-      <c r="J140" s="16"/>
-      <c r="K140" s="16"/>
-    </row>
-    <row r="141" spans="9:11">
-      <c r="I141" s="16"/>
-      <c r="J141" s="16"/>
-      <c r="K141" s="16"/>
-    </row>
-    <row r="142" spans="9:11">
-      <c r="I142" s="16"/>
-      <c r="J142" s="16"/>
-      <c r="K142" s="16"/>
-    </row>
-    <row r="143" spans="9:11">
-      <c r="I143" s="16"/>
-      <c r="J143" s="16"/>
-      <c r="K143" s="16"/>
+      <c r="H108" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B63:B64"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/N-DEx_NIBRS XSLT/NIBRS_mapping.xlsx
+++ b/N-DEx_NIBRS XSLT/NIBRS_mapping.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2360" windowWidth="33960" windowHeight="17060" tabRatio="500"/>
+    <workbookView xWindow="2000" yWindow="340" windowWidth="33960" windowHeight="17060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NIBRS" sheetId="2" r:id="rId1"/>
+    <sheet name="Variable" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="226">
   <si>
     <t>TARGET_COLUMN</t>
   </si>
@@ -477,10 +478,6 @@
     <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Organization[ndexia:OrganizationAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityOrganization/nc20:Organization/@s20:id]/j40:OrganizationAugmentation/j40:OrganizationORIIdentification/nc20:IdentificationID</t>
   </si>
   <si>
-    <t xml:space="preserve">lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityActivity/nc20:Activity[nc:ActivityCategoryText='Incident'][@s:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:Associations/nc20:ActivityReportingOrganizationAssociation/nc20:ActivityReference/@s20:ref]
-</t>
-  </si>
-  <si>
     <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Location[ndexia:LocationAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityLocation/nc20:Location/@s20:id]/ndexia:LocationCategoryCode</t>
   </si>
   <si>
@@ -626,10 +623,6 @@
   </si>
   <si>
     <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:VictimAugmentation/ndexia:VictimAggravatedAssaultHomicideFactorCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/nibrs-ext:IncidentReport/nibrs-ext:Property[lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityTangibleItem/nc20:TangibleItem/@s20:id]j40:PropertyCategoryNIBRSPropertyCategoryCode
-</t>
   </si>
   <si>
     <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityDrug/nc20:Drug/j40:DrugDEACode</t>
@@ -666,9 +659,6 @@
 </t>
   </si>
   <si>
-    <t>[nc20:PersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]</t>
-  </si>
-  <si>
     <t>[nc20:ActivityReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityActivity/nc20:Activity/@s20:id]</t>
   </si>
   <si>
@@ -678,9 +668,6 @@
 </t>
   </si>
   <si>
-    <t>[lexsdigest:SubjectPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:IncidentSubject/nc20:RoleOfPersonReference/@s20:ref]</t>
-  </si>
-  <si>
     <t>[lexsdigest:VictimPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]</t>
   </si>
   <si>
@@ -712,6 +699,41 @@
   </si>
   <si>
     <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:ArrestSubject[ndexia:ArrestSubjectAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:ArrestSubject[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:ArrestSubjectAugmentation/j40:ArrestSequenceID</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:ArrestSubject[ndexia:ArrestSubjectAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:ArrestSubject[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:ArrestSubjectAugmentation/ndexia:ArresteeJuvenileDispositionCode</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:ArrestSubject[ndexia:ArrestSubjectAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:ArrestSubject[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:ArrestSubjectAugmentation/j40:ArrestSubjectCountCode</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:ArrestSubject[ndexia:ArrestSubjectAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:ArrestSubject[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:ArrestSubjectAugmentation/j40:ChargeUCRCode</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:ArrestSubject[ndexia:ArrestSubjectAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:ArrestSubject[nc20:RoleOfPersonReference/@s20:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:ArrestSubjectAugmentation/ndexia:ArresteeArmedWithCode</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityPerson/j40:ArrestSubject/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonSexCode</t>
+  </si>
+  <si>
+    <t>25C</t>
+  </si>
+  <si>
+    <t>ORI-Other Jurisdiction</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:EnforcementUnit[ndexia:EnforcementUnitAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityOrganization/nc20:Organization/@s20:id]/j40:OrganizationAugmentation/j40:OrganizationORIIdentification/nc20:IdentificationID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityActivity/nc20:Activity[nc20:ActivityCategoryText='Incident'][@s:id=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:Associations/nc20:ActivityReportingOrganizationAssociation/nc20:ActivityReference/@s20:ref]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/nibrs-ext:IncidentReport/nibrs-ext:Property[lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityTangibleItem/nc20:TangibleItem/@s20:id]/j40:PropertyCategoryNIBRSPropertyCategoryCode
+</t>
+  </si>
+  <si>
+    <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Arrest[ndexia:ArrestAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityActivity/nc20:Activity/@s20:id]</t>
   </si>
 </sst>
 </file>
@@ -810,7 +832,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -966,8 +988,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1026,9 +1074,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1044,8 +1089,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1164,6 +1215,19 @@
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1200,6 +1264,19 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1536,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1576,7 +1653,7 @@
         <v>141</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="30">
@@ -1623,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45">
@@ -1655,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60">
@@ -1672,7 +1749,7 @@
         <v>50</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30">
@@ -1716,7 +1793,7 @@
         <v>53</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45">
@@ -1733,7 +1810,7 @@
         <v>54</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="60">
@@ -1753,7 +1830,7 @@
         <v>119</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1788,7 +1865,7 @@
         <v>55</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="60">
@@ -1808,7 +1885,7 @@
         <v>56</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="45">
@@ -1825,7 +1902,7 @@
         <v>58</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="60">
@@ -1842,7 +1919,7 @@
         <v>139</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45">
@@ -1859,7 +1936,7 @@
         <v>140</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="60">
@@ -1879,7 +1956,7 @@
         <v>60</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="60">
@@ -1899,19 +1976,19 @@
         <v>62</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="18" customFormat="1" ht="60">
       <c r="A22" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>164</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>165</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="60">
@@ -1928,7 +2005,7 @@
         <v>65</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1963,14 +2040,14 @@
         <v>67</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="75">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="105">
       <c r="A26" s="1">
         <v>15</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="25" t="s">
         <v>131</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -1982,15 +2059,15 @@
       <c r="G26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="20" t="s">
-        <v>195</v>
+      <c r="H26" s="21" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45">
       <c r="A27" s="1">
         <v>16</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="25"/>
       <c r="E27" s="1" t="s">
         <v>18</v>
       </c>
@@ -2001,14 +2078,14 @@
         <v>70</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="45">
       <c r="A28" s="1">
         <v>17</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="25"/>
       <c r="E28" s="1" t="s">
         <v>19</v>
       </c>
@@ -2019,7 +2096,7 @@
         <v>71</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45">
@@ -2036,7 +2113,7 @@
         <v>72</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="45">
@@ -2053,14 +2130,14 @@
         <v>73</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>20</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="25" t="s">
         <v>132</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -2073,14 +2150,14 @@
         <v>95</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30">
       <c r="A32" s="1">
         <v>21</v>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="25"/>
       <c r="E32" s="1" t="s">
         <v>21</v>
       </c>
@@ -2090,12 +2167,12 @@
       <c r="G32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="22" t="s">
-        <v>197</v>
+      <c r="H32" s="26" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="47" customHeight="1">
-      <c r="B33" s="23"/>
+      <c r="B33" s="25"/>
       <c r="E33" s="1" t="s">
         <v>22</v>
       </c>
@@ -2105,13 +2182,13 @@
       <c r="G33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="23"/>
+      <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>22</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="25"/>
       <c r="E34" s="1" t="s">
         <v>74</v>
       </c>
@@ -2121,8 +2198,8 @@
       <c r="G34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H34" s="22" t="s">
-        <v>198</v>
+      <c r="H34" s="26" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2130,7 +2207,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>12</v>
@@ -2141,10 +2218,10 @@
       <c r="G35" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="23"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" ht="60">
-      <c r="A36" s="25">
+      <c r="A36" s="24">
         <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2157,11 +2234,11 @@
         <v>99</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="129" customHeight="1">
-      <c r="A37" s="25">
+      <c r="A37" s="24">
         <v>24</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2176,12 +2253,12 @@
       <c r="G37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H37" s="24" t="s">
-        <v>204</v>
+      <c r="H37" s="23" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="60">
-      <c r="A38" s="25">
+      <c r="A38" s="24">
         <v>25</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -2194,24 +2271,26 @@
         <v>80</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="17" customFormat="1">
-      <c r="A39" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="A39" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="165">
+      <c r="A40" s="24">
+        <v>26</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="1:8" ht="165">
-      <c r="A40" s="25">
-        <v>26</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="F40" s="1">
         <v>4</v>
@@ -2220,11 +2299,11 @@
         <v>81</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="45">
-      <c r="A41" s="25">
+      <c r="A41" s="24">
         <v>27</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -2236,12 +2315,12 @@
       <c r="G41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="21" t="s">
-        <v>202</v>
+      <c r="H41" s="20" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="60">
-      <c r="A42" s="25">
+      <c r="A42" s="24">
         <v>28</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -2254,11 +2333,11 @@
         <v>85</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="60">
-      <c r="A43" s="25">
+      <c r="A43" s="24">
         <v>29</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -2271,11 +2350,11 @@
         <v>87</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="60">
-      <c r="A44" s="25">
+      <c r="A44" s="24">
         <v>30</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -2288,11 +2367,11 @@
         <v>89</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="60">
-      <c r="A45" s="25">
+      <c r="A45" s="24">
         <v>31</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2308,11 +2387,11 @@
         <v>90</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="60">
-      <c r="A46" s="25">
+      <c r="A46" s="24">
         <v>32</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -2325,11 +2404,11 @@
         <v>91</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="60">
-      <c r="A47" s="25">
+      <c r="A47" s="24">
         <v>33</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2345,14 +2424,14 @@
         <v>92</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="150">
-      <c r="A48" s="25">
+      <c r="A48" s="24">
         <v>34</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="25" t="s">
         <v>136</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -2364,26 +2443,26 @@
       <c r="G48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H48" s="21" t="s">
-        <v>207</v>
+      <c r="H48" s="20" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="75">
-      <c r="A49" s="25">
+      <c r="A49" s="24">
         <v>35</v>
       </c>
-      <c r="B49" s="23"/>
+      <c r="B49" s="25"/>
       <c r="E49" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H49" s="21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="18" customFormat="1" ht="30">
+      <c r="H49" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="18" customFormat="1">
       <c r="C50" s="18">
         <v>4</v>
       </c>
@@ -2399,9 +2478,7 @@
       <c r="G50" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="5" t="s">
-        <v>205</v>
-      </c>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" s="18" customFormat="1" ht="60">
       <c r="A51" s="18">
@@ -2416,8 +2493,8 @@
       <c r="G51" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H51" s="24" t="s">
-        <v>190</v>
+      <c r="H51" s="23" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="18" customFormat="1" ht="59" customHeight="1">
@@ -2436,8 +2513,8 @@
       <c r="G52" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H52" s="24" t="s">
-        <v>206</v>
+      <c r="H52" s="23" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="18" customFormat="1" ht="60">
@@ -2454,18 +2531,18 @@
         <v>80</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="18" customFormat="1" ht="30">
       <c r="A54" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E54" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>215</v>
+      <c r="H54" s="23" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="18" customFormat="1" ht="165">
@@ -2473,7 +2550,7 @@
         <v>26</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F55" s="18">
         <v>4</v>
@@ -2481,8 +2558,8 @@
       <c r="G55" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H55" s="21" t="s">
-        <v>201</v>
+      <c r="H55" s="20" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="18" customFormat="1" ht="30">
@@ -2498,8 +2575,8 @@
       <c r="G56" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="H56" s="21" t="s">
-        <v>203</v>
+      <c r="H56" s="20" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="18" customFormat="1" ht="60">
@@ -2515,8 +2592,8 @@
       <c r="G57" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="21" t="s">
-        <v>180</v>
+      <c r="H57" s="20" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="18" customFormat="1" ht="60">
@@ -2532,8 +2609,8 @@
       <c r="G58" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H58" s="21" t="s">
-        <v>181</v>
+      <c r="H58" s="20" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="18" customFormat="1" ht="45">
@@ -2549,8 +2626,8 @@
       <c r="G59" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="H59" s="21" t="s">
-        <v>200</v>
+      <c r="H59" s="20" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="18" customFormat="1" ht="60">
@@ -2570,7 +2647,7 @@
         <v>90</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="18" customFormat="1" ht="60">
@@ -2587,7 +2664,7 @@
         <v>91</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="18" customFormat="1" ht="60">
@@ -2607,14 +2684,14 @@
         <v>92</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="18" customFormat="1" ht="105">
       <c r="A63" s="18">
         <v>34</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="25" t="s">
         <v>136</v>
       </c>
       <c r="E63" s="18" t="s">
@@ -2626,26 +2703,26 @@
       <c r="G63" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H63" s="21" t="s">
-        <v>210</v>
+      <c r="H63" s="20" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="18" customFormat="1" ht="75">
       <c r="A64" s="18">
         <v>35</v>
       </c>
-      <c r="B64" s="23"/>
+      <c r="B64" s="25"/>
       <c r="E64" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H64" s="21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="30">
+      <c r="H64" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="C65" s="1">
         <v>5</v>
       </c>
@@ -2661,9 +2738,7 @@
       <c r="G65" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H65" s="5" t="s">
-        <v>208</v>
-      </c>
+      <c r="H65" s="5"/>
     </row>
     <row r="66" spans="1:8" ht="75">
       <c r="A66" s="1">
@@ -2678,8 +2753,8 @@
       <c r="G66" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H66" s="24" t="s">
-        <v>213</v>
+      <c r="H66" s="23" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="45">
@@ -2695,8 +2770,8 @@
       <c r="G67" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H67" s="21" t="s">
-        <v>209</v>
+      <c r="H67" s="20" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="45">
@@ -2712,8 +2787,8 @@
       <c r="G68" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H68" s="21" t="s">
-        <v>214</v>
+      <c r="H68" s="20" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="60">
@@ -2730,18 +2805,18 @@
         <v>85</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="18" customFormat="1" ht="60">
       <c r="A70" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="H70" s="14" t="s">
         <v>170</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2772,8 +2847,8 @@
       <c r="F72" s="1">
         <v>2</v>
       </c>
-      <c r="H72" s="24" t="s">
-        <v>218</v>
+      <c r="H72" s="23" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="30">
@@ -2789,8 +2864,8 @@
       <c r="G73" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H73" s="24" t="s">
-        <v>217</v>
+      <c r="H73" s="23" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="30">
@@ -2803,11 +2878,11 @@
       <c r="F74" s="1">
         <v>8</v>
       </c>
-      <c r="H74" s="24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="H74" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="45">
       <c r="A75" s="1">
         <v>43</v>
       </c>
@@ -2817,9 +2892,11 @@
       <c r="F75" s="1">
         <v>1</v>
       </c>
-      <c r="H75" s="19"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="H75" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="60">
       <c r="A76" s="1">
         <v>44</v>
       </c>
@@ -2832,9 +2909,11 @@
       <c r="G76" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="H76" s="19"/>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="H76" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="60">
       <c r="A77" s="1">
         <v>45</v>
       </c>
@@ -2844,13 +2923,15 @@
       <c r="F77" s="1">
         <v>3</v>
       </c>
-      <c r="H77" s="19"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="H77" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="60">
       <c r="A78" s="1">
         <v>46</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="25" t="s">
         <v>134</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -2862,13 +2943,15 @@
       <c r="G78" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H78" s="19"/>
+      <c r="H78" s="23" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>46</v>
       </c>
-      <c r="B79" s="23"/>
+      <c r="B79" s="25"/>
       <c r="E79" s="1" t="s">
         <v>63</v>
       </c>
@@ -2878,7 +2961,7 @@
       <c r="G79" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H79" s="19"/>
+      <c r="H79" s="23"/>
     </row>
     <row r="80" spans="1:8" ht="174" customHeight="1">
       <c r="A80" s="1">
@@ -2895,7 +2978,7 @@
       </c>
       <c r="H80" s="14"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" ht="45">
       <c r="A81" s="1">
         <v>48</v>
       </c>
@@ -2908,7 +2991,9 @@
       <c r="G81" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H81" s="14"/>
+      <c r="H81" s="21" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="82" spans="1:8" ht="60">
       <c r="A82" s="1">
@@ -2924,7 +3009,7 @@
         <v>85</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="60">
@@ -2941,7 +3026,7 @@
         <v>87</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="60">
@@ -2958,10 +3043,10 @@
         <v>89</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="60">
       <c r="A85" s="1">
         <v>52</v>
       </c>
@@ -2974,7 +3059,9 @@
       <c r="G85" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H85" s="15"/>
+      <c r="H85" s="21" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="E86" s="1" t="s">
@@ -3143,7 +3230,7 @@
       <c r="G98" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H98" s="21"/>
+      <c r="H98" s="20"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1">
@@ -3318,4 +3405,1801 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="40.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="22" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="68.1640625" style="22" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="149.1640625" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="36">
+      <c r="A1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="30">
+      <c r="A2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="45">
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="E4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" ht="60">
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45">
+      <c r="A6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60">
+      <c r="A7" s="22">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60">
+      <c r="A8" s="22">
+        <v>3</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="22">
+        <v>8</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30">
+      <c r="E9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" ht="90">
+      <c r="A10" s="22">
+        <v>3</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="22">
+        <v>2</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" ht="45">
+      <c r="A11" s="22">
+        <v>4</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45">
+      <c r="A12" s="22">
+        <v>5</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="22">
+        <v>8</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60">
+      <c r="A13" s="22">
+        <v>6</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="22">
+        <v>3</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="22">
+        <v>2</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="45">
+      <c r="A15" s="22">
+        <v>7</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60">
+      <c r="A16" s="22">
+        <v>8</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45">
+      <c r="A17" s="22">
+        <v>9</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="22">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60">
+      <c r="A18" s="22">
+        <v>10</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="22">
+        <v>2</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45">
+      <c r="A19" s="22">
+        <v>11</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="22">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60">
+      <c r="A20" s="22">
+        <v>12</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="22">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60">
+      <c r="A21" s="22">
+        <v>13</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="22">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60">
+      <c r="A22" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60">
+      <c r="A23" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="22">
+        <v>2</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="22">
+        <v>3</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="60">
+      <c r="A25" s="22">
+        <v>14</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="22">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="105">
+      <c r="A26" s="22">
+        <v>15</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="22">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45">
+      <c r="A27" s="22">
+        <v>16</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="E27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="22">
+        <v>9</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45">
+      <c r="A28" s="22">
+        <v>17</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="E28" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="22">
+        <v>8</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45">
+      <c r="A29" s="22">
+        <v>18</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="22">
+        <v>2</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="45">
+      <c r="A30" s="22">
+        <v>19</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="22">
+        <v>2</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="22">
+        <v>20</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="22">
+        <v>1</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30">
+      <c r="A32" s="22">
+        <v>21</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="E32" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="22">
+        <v>9</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="47" customHeight="1">
+      <c r="B33" s="25"/>
+      <c r="E33" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="22">
+        <v>3</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="22">
+        <v>22</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="E34" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="22">
+        <v>2</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="C35" s="22">
+        <v>4</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="5">
+        <v>4</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8" ht="60">
+      <c r="A36" s="24">
+        <v>23</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="22">
+        <v>3</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="129" customHeight="1">
+      <c r="A37" s="24">
+        <v>24</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="22">
+        <v>3</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="60">
+      <c r="A38" s="24">
+        <v>25</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="22">
+        <v>1</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="45">
+      <c r="A39" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="165">
+      <c r="A40" s="24">
+        <v>26</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="22">
+        <v>4</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45">
+      <c r="A41" s="24">
+        <v>27</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="22">
+        <v>1</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="60">
+      <c r="A42" s="24">
+        <v>28</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="22">
+        <v>1</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="60">
+      <c r="A43" s="24">
+        <v>29</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="22">
+        <v>1</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="60">
+      <c r="A44" s="24">
+        <v>30</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="22">
+        <v>1</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="60">
+      <c r="A45" s="24">
+        <v>31</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="22">
+        <v>2</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="60">
+      <c r="A46" s="24">
+        <v>32</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" s="22">
+        <v>1</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="60">
+      <c r="A47" s="24">
+        <v>33</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="22">
+        <v>1</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="150">
+      <c r="A48" s="24">
+        <v>34</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="22">
+        <v>2</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="75">
+      <c r="A49" s="24">
+        <v>35</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="E49" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="C50" s="22">
+        <v>4</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="5">
+        <v>4</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" ht="60">
+      <c r="A51" s="22">
+        <v>23</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="22">
+        <v>3</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="59" customHeight="1">
+      <c r="A52" s="22">
+        <v>24</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" s="22">
+        <v>3</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="60">
+      <c r="A53" s="22">
+        <v>25</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="22">
+        <v>1</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30">
+      <c r="A54" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="165">
+      <c r="A55" s="22">
+        <v>26</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F55" s="22">
+        <v>4</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30">
+      <c r="A56" s="22">
+        <v>27</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="22">
+        <v>1</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="60">
+      <c r="A57" s="22">
+        <v>28</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="22">
+        <v>1</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="60">
+      <c r="A58" s="22">
+        <v>29</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="22">
+        <v>1</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="45">
+      <c r="A59" s="22">
+        <v>30</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="22">
+        <v>1</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="60">
+      <c r="A60" s="22">
+        <v>31</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="22">
+        <v>2</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="60">
+      <c r="A61" s="22">
+        <v>32</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="22">
+        <v>1</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="60">
+      <c r="A62" s="22">
+        <v>33</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="22">
+        <v>1</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="105">
+      <c r="A63" s="22">
+        <v>34</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="22">
+        <v>2</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="75">
+      <c r="A64" s="22">
+        <v>35</v>
+      </c>
+      <c r="B64" s="25"/>
+      <c r="E64" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="C65" s="22">
+        <v>5</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="5">
+        <v>4</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" ht="75">
+      <c r="A66" s="22">
+        <v>36</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66" s="22">
+        <v>2</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="45">
+      <c r="A67" s="22">
+        <v>37</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="22">
+        <v>4</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="45">
+      <c r="A68" s="22">
+        <v>38</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F68" s="22">
+        <v>1</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="60">
+      <c r="A69" s="22">
+        <v>39</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F69" s="22">
+        <v>1</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="60">
+      <c r="A70" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="C71" s="22">
+        <v>6</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="5">
+        <v>4</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:8" ht="60">
+      <c r="A72" s="22">
+        <v>40</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="22">
+        <v>2</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30">
+      <c r="A73" s="22">
+        <v>41</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="22">
+        <v>12</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30">
+      <c r="A74" s="22">
+        <v>42</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="22">
+        <v>8</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="45">
+      <c r="A75" s="22">
+        <v>43</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F75" s="22">
+        <v>1</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="60">
+      <c r="A76" s="22">
+        <v>44</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F76" s="22">
+        <v>1</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="60">
+      <c r="A77" s="22">
+        <v>45</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" s="22">
+        <v>3</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="60">
+      <c r="A78" s="22">
+        <v>46</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" s="22">
+        <v>2</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="22">
+        <v>46</v>
+      </c>
+      <c r="B79" s="25"/>
+      <c r="E79" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F79" s="22">
+        <v>1</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H79" s="23"/>
+    </row>
+    <row r="80" spans="1:8" ht="174" customHeight="1">
+      <c r="A80" s="22">
+        <v>47</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="22">
+        <v>4</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H80" s="21"/>
+    </row>
+    <row r="81" spans="1:8" ht="45">
+      <c r="A81" s="22">
+        <v>48</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F81" s="22">
+        <v>1</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H81" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="60">
+      <c r="A82" s="22">
+        <v>49</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F82" s="22">
+        <v>1</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H82" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="60">
+      <c r="A83" s="22">
+        <v>50</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F83" s="22">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H83" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="60">
+      <c r="A84" s="22">
+        <v>51</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="22">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="60">
+      <c r="A85" s="22">
+        <v>52</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F85" s="22">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H85" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="E86" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" s="22">
+        <v>1</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H86" s="21"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="E87" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="22">
+        <v>3</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H87" s="21"/>
+    </row>
+    <row r="88" spans="1:8" ht="30">
+      <c r="A88" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+    </row>
+    <row r="89" spans="1:8" ht="18">
+      <c r="A89" s="2"/>
+      <c r="C89" s="22">
+        <v>7</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="5">
+        <v>4</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="E90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="5">
+        <v>1</v>
+      </c>
+      <c r="G90" s="5">
+        <v>7</v>
+      </c>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="E91" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F91" s="5">
+        <v>1</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="E92" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="5">
+        <v>2</v>
+      </c>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="E93" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="5">
+        <v>4</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="E94" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="5">
+        <v>4</v>
+      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="22">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="5">
+        <v>9</v>
+      </c>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="1:8" ht="105">
+      <c r="A96" s="22">
+        <v>41</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F96" s="22">
+        <v>12</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H96" s="21"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="22">
+        <v>42</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F97" s="22">
+        <v>2</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H97" s="21"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="22">
+        <v>43</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" s="22">
+        <v>8</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H98" s="21"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="22">
+        <v>44</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F99" s="22">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H99" s="21"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="22">
+        <v>45</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" s="22">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H100" s="21"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="22">
+        <v>46</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" s="22">
+        <v>2</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H101" s="21"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="22">
+        <v>46</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F102" s="22">
+        <v>1</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="45">
+      <c r="A103" s="22">
+        <v>47</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F103" s="22">
+        <v>4</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H103" s="21"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="22">
+        <v>48</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F104" s="22">
+        <v>1</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H104" s="21"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="22">
+        <v>49</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105" s="22">
+        <v>1</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H105" s="21"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="22">
+        <v>50</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F106" s="22">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H106" s="21"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="22">
+        <v>51</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F107" s="22">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H107" s="21"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="22">
+        <v>52</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F108" s="22">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H108" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B63:B64"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/N-DEx_NIBRS XSLT/NIBRS_mapping.xlsx
+++ b/N-DEx_NIBRS XSLT/NIBRS_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="340" windowWidth="33960" windowHeight="17060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3340" yWindow="2960" windowWidth="26360" windowHeight="14220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NIBRS" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="282">
   <si>
     <t>TARGET_COLUMN</t>
   </si>
@@ -734,13 +734,197 @@
   </si>
   <si>
     <t>lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/ndexia:IncidentReport/ndexia:Arrest[ndexia:ArrestAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:Digest/lexsdigest:EntityActivity/nc20:Activity/@s20:id]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$DIGEST/lexsdigest:EntityActivity/nc20:Activity[nc20:ActivityCategoryText='Incident'][@s:id=/$DIGEST/lexsdigest:Associations/nc20:ActivityReportingOrganizationAssociation/nc20:ActivityReference/@s20:ref]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$DIGEST/lexsdigest:EntityActivity/nc20:Activity[nc20:ActivityCategoryText='Incident'][@s20:id=/$DIGEST/lexsdigest:Associations/nc20:ActivityReportingOrganizationAssociation/nc20:ActivityReference/@s20:ref]/nc20:ActivityIdentification/nc20:IdentificationID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$DIGEST/lexsdigest:EntityActivity/nc20:Activity[nc20:ActivityCategoryText='Incident'][@s20:id=/$DIGEST/lexsdigest:Associations/nc20:ActivityReportingOrganizationAssociation/nc20:ActivityReference/@s20:ref]/nc20:ActivityDate/nc20:DateTime
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexspd:doPublish/lexs:PublishMessageContainer/lexs:PublishMessage/lexs:DataItemPackage/lexs:StructuredPayload/nibrs-ext:IncidentReport/nibrs-ext:Property[lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityTangibleItem/nc20:TangibleItem/@s20:id]/j40:PropertyCategoryNIBRSPropertyCategoryCode
+</t>
+  </si>
+  <si>
+    <t>$DIGEST/lexsdigest:EntityDrug/nc20:Drug/j40:DrugDEACode</t>
+  </si>
+  <si>
+    <t>[nc20:ActivityReference/@s20:ref=/$DIGEST/lexsdigest:EntityActivity/nc20:Activity/@s20:id]</t>
+  </si>
+  <si>
+    <t>$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/$DIGEST/lexsdigest:EntityPerson/j40:Victim/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonAgeMeasure/nc20:MeasurePointValue
+$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/$DIGEST/lexsdigest:EntityPerson/j40:Victim/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonAgeMeasure/nc20:MeasureRangeValue/nc20:RangeMinimumValue
+$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/$DIGEST/lexsdigest:EntityPerson/j40:Victim/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonAgeMeasure/nc20:MeasureRangeValue/nc20:RangeMaximumValue</t>
+  </si>
+  <si>
+    <t>$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/$DIGEST/lexsdigest:EntityPerson/j40:Victim/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonSexCode</t>
+  </si>
+  <si>
+    <t>$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/$DIGEST/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonAgeMeasure/nc20:MeasureRangeValue/nc20:RangeMaximumValue</t>
+  </si>
+  <si>
+    <t>$DIGEST/lexsdigest:Associations/lexsdigest:SubjectVictimAssociation
+[lexsdigest:SubjectPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/j40:IncidentSubject/nc20:RoleOfPersonReference/@s20:ref]
+[lexsdigest:VictimPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/j40:Victim/nc20:RoleOfPersonReference/@s20:ref]</t>
+  </si>
+  <si>
+    <t>[lexsdigest:VictimPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/j40:EnforcementOfficial/nc20:RoleOfPersonReference/@s20:ref]</t>
+  </si>
+  <si>
+    <t>$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/$DIGEST/lexsdigest:EntityPerson/j40:IncidentSubject/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonSexCode</t>
+  </si>
+  <si>
+    <t>$DIGEST/lexsdigest:EntityActivity/nc20:Activity[nc20:ActivityCategoryText='Arrest']/nc20:ActivityIdentification/nc20:IdentificationID</t>
+  </si>
+  <si>
+    <t>$DIGEST/lexsdigest:EntityActivity/nc20:Activity[nc20:ActivityCategoryText='Arrest']/nc20:ActivityDate/nc20:Date</t>
+  </si>
+  <si>
+    <t>$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person[@s20:id=/$DIGEST/lexsdigest:EntityPerson/j40:ArrestSubject/nc20:RoleOfPersonReference/@s20:ref]/nc20:PersonSexCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Organization[ndexia:OrganizationAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityOrganization/nc20:Organization/@s20:id]/j40:OrganizationAugmentation/j40:OrganizationORIIdentification/nc20:IdentificationID</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Incident[ndexia:IncidentAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityActivity/nc20:Activity/@s20:id]/j40:IncidentAugmentation/j40:IncidentExceptionalClearanceCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Incident[ndexia:IncidentAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityActivity/nc20:Activity/@s20:id]/j40:IncidentAugmentation/j40:IncidentExceptionalClearanceDate/nc20:Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$NDEXIA/ndexia:Offense[ndexia:ActivityAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityActivity/nc20:Activity/@s20:id]/ndexia:OffenseCode
+</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Offense[ndexia:ActivityAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityActivity/nc20:Activity/@s20:id]/ndexia:OffenseCompletedIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$NDEXIA/ndexia:Offense[ndexia:ActivityAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityActivity/nc20:Activity/@s20:id]/j40:IncidentFactor/j40:IncidentFactorCode
+</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Location[ndexia:LocationAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityLocation/nc20:Location/@s20:id]/ndexia:LocationCategoryCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$NDEXIA/ndexia:Offense[ndexia:ActivityAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityActivity/nc20:Activity/@s20:id]/j40:IncidentStructuresEnteredQuantity
+</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Offense[ndexia:ActivityAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityActivity/nc20:Activity/@s20:id]/ndexia:OffenseEntryPoint/j40:PassagePointMethodCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$NDEXIA/ndexia:Offense[ndexia:ActivityAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityActivity/nc20:Activity/@s20:id]/ndexia:CriminalActivityCategoryCode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$NDEXIA/ndexia:Offense[ndexia:ActivityAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityActivity/nc20:Activity/@s20:id]/j40:IncidentForce/j40:ForceCategoryCode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$NDEXIA/ndexia:Offense[ndexia:ActivityAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityActivity/nc20:Activity/@s20:id]/ndexia:OffenseCargoTheftIndicator
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$NDEXIA/ndexia:Offense[ndexia:ActivityAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityActivity/nc20:Activity/@s20:id]/ndexia:OffenseBiasMotivationCode
+</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:TangibleItem[ndexia:TangibleItemAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityTangibleItem/nc20:TangibleItem/@s20:id]/ndexia:TangibleItemAugmentation/ndexia:ItemQuantityStatusValue/ndexia:ItemStatus/ndexia:ItemStatusAugmentation/ndexia:ItemStatusCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:TangibleItem[ndexia:TangibleItemAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityTangibleItem/nc20:TangibleItem/@s20:id]/ndexia:TangibleItemAugmentation/ndexia:ItemQuantityStatusValue/ndexia:ItemValue/nc20:ItemValueAmount</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:TangibleItem[ndexia:TangibleItemAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityTangibleItem/nc20:TangibleItem/@s20:id]/ndexia:TangibleItemAugmentation/ndexia:ItemQuantityStatusValue/ndexia:ItemStatus/nc20:StatusDate/nc20:Date</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:TangibleItem[ndexia:TangibleItemAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityTangibleItem/nc20:TangibleItem/@s20:id]/ndexia:TangibleItemAugmentation/ndexia:ItemQuantityStatusValue/nc20:ItemQuantity</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Drug[ndexia:DrugAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityDrug/nc20:Drug/@s20:id]/ndexia:DrugAugmentation/ndexia:ItemQuantityStatusValue/nc20:SubstanceQuantityMeasure/nc20:MeasurePointValue</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Drug[ndexia:DrugAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityDrug/nc20:Drug/@s20:id]/ndexia:DrugAugmentation/ndexia:ItemQuantityStatusValue/nc20:SubstanceQuantityMeasure/nc20:SubstanceUnitCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:EnforcementUnit[ndexia:EnforcementUnitAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityOrganization/nc20:Organization/@s20:id]/j40:OrganizationAugmentation/j40:OrganizationORIIdentification/nc20:IdentificationID</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson/j40:Victim[nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:VictimAugmentation/ndexia:VictimSequenceNumberText</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson/j40:Victim[nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/j40:VictimCategoryCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Person[ndexia:PersonAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson[j40:Victim/nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/lexsdigest:Person/@s20:id]/nc20:PersonRaceCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Person[ndexia:PersonAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson[j40:Victim/nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/lexsdigest:Person/@s20:id]/nc20:PersonEthnicityCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson/j40:Victim[nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:VictimAugmentation/ndexia:VictimAggravatedAssaultHomicideFactorCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson/j40:Victim[nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/j40:VictimJustifiableHomicideFactorCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Victim[ndexia:VictimAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson/j40:Victim[nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:VictimInjury/ndexia:InjuryAugmentation/ndexia:InjuryCategoryCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Subject[ndexia:SubjectAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson/j40:IncidentSubject[nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:SubjectAugmentation/ndexia:SubjectSequenceNumberText</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Person[ndexia:PersonAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson[j40:IncidentSubject/nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/lexsdigest:Person/@s20:id]/nc20:PersonRaceCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Person[ndexia:PersonAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson[j40:IncidentSubject/nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/lexsdigest:Person/@s20:id]/nc20:PersonEthnicityCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:ArrestSubject[ndexia:ArrestSubjectAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson/j40:ArrestSubject[nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:ArrestSubjectAugmentation/j40:ArrestSequenceID</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Arrest[ndexia:ArrestAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityActivity/nc20:Activity/@s20:id]</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:ArrestSubject[ndexia:ArrestSubjectAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson/j40:ArrestSubject[nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:ArrestSubjectAugmentation/j40:ArrestSubjectCountCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:ArrestSubject[ndexia:ArrestSubjectAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson/j40:ArrestSubject[nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:ArrestSubjectAugmentation/j40:ChargeUCRCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:ArrestSubject[ndexia:ArrestSubjectAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson/j40:ArrestSubject[nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:ArrestSubjectAugmentation/ndexia:ArresteeArmedWithCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Person[ndexia:PersonAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson[j40:ArrestSubject/nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/lexsdigest:Person/@s20:id]/nc20:PersonRaceCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Person[ndexia:PersonAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson[j40:ArrestSubject/nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/lexsdigest:Person/@s20:id]/nc20:PersonEthnicityCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:Person[ndexia:PersonAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson[j40:ArrestSubject/nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/lexsdigest:Person/@s20:id]/nc20:PersonResidentCode</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:ArrestSubject[ndexia:ArrestSubjectAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson/j40:ArrestSubject[nc20:RoleOfPersonReference/@s20:ref=/$DIGEST/lexsdigest:EntityPerson/lexsdigest:Person/@s20:id]/@s20:id]/ndexia:ArrestSubjectAugmentation/ndexia:ArresteeJuvenileDispositionCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$NDEXIA/ndexia:SubjectVictimAssociation/ndexia:SubjectVictimAssociationAugmentation[lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:Associations/lexsdigest:SubjectVictimAssociation/@s20:id]/ndexia:VictimToSubjectRelationshipCode
+</t>
+  </si>
+  <si>
+    <t>$NDEXIA/ndexia:EnforcementOfficial[ndexia:EnforcementOfficialAugmentation/lexslib:SameAsDigestReference/@lexslib:ref=/$DIGEST/lexsdigest:EntityPerson/j40:EnforcementOfficial/@s20:id]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -796,6 +980,22 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -832,7 +1032,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="181">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1014,8 +1214,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1089,14 +1295,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="181">
+  <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1228,6 +1470,9 @@
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1277,6 +1522,9 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2047,7 +2295,7 @@
       <c r="A26" s="1">
         <v>15</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="36" t="s">
         <v>131</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2067,7 +2315,7 @@
       <c r="A27" s="1">
         <v>16</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="36"/>
       <c r="E27" s="1" t="s">
         <v>18</v>
       </c>
@@ -2085,7 +2333,7 @@
       <c r="A28" s="1">
         <v>17</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="36"/>
       <c r="E28" s="1" t="s">
         <v>19</v>
       </c>
@@ -2137,7 +2385,7 @@
       <c r="A31" s="1">
         <v>20</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="36" t="s">
         <v>132</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -2157,7 +2405,7 @@
       <c r="A32" s="1">
         <v>21</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="36"/>
       <c r="E32" s="1" t="s">
         <v>21</v>
       </c>
@@ -2167,12 +2415,12 @@
       <c r="G32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="37" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="47" customHeight="1">
-      <c r="B33" s="25"/>
+      <c r="B33" s="36"/>
       <c r="E33" s="1" t="s">
         <v>22</v>
       </c>
@@ -2182,13 +2430,13 @@
       <c r="G33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="25"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>22</v>
       </c>
-      <c r="B34" s="25"/>
+      <c r="B34" s="36"/>
       <c r="E34" s="1" t="s">
         <v>74</v>
       </c>
@@ -2198,7 +2446,7 @@
       <c r="G34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="37" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2218,7 +2466,7 @@
       <c r="G35" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="25"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="1:8" ht="60">
       <c r="A36" s="24">
@@ -2431,7 +2679,7 @@
       <c r="A48" s="24">
         <v>34</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="36" t="s">
         <v>136</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -2451,7 +2699,7 @@
       <c r="A49" s="24">
         <v>35</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="36"/>
       <c r="E49" s="1" t="s">
         <v>36</v>
       </c>
@@ -2691,7 +2939,7 @@
       <c r="A63" s="18">
         <v>34</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="36" t="s">
         <v>136</v>
       </c>
       <c r="E63" s="18" t="s">
@@ -2711,7 +2959,7 @@
       <c r="A64" s="18">
         <v>35</v>
       </c>
-      <c r="B64" s="25"/>
+      <c r="B64" s="36"/>
       <c r="E64" s="18" t="s">
         <v>36</v>
       </c>
@@ -2931,7 +3179,7 @@
       <c r="A78" s="1">
         <v>46</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="36" t="s">
         <v>134</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -2951,7 +3199,7 @@
       <c r="A79" s="1">
         <v>46</v>
       </c>
-      <c r="B79" s="25"/>
+      <c r="B79" s="36"/>
       <c r="E79" s="1" t="s">
         <v>63</v>
       </c>
@@ -3409,10 +3657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="D30" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3424,7 +3672,7 @@
     <col min="5" max="5" width="40.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" style="22" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="68.1640625" style="22" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="149.1640625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="149.1640625" style="28" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
@@ -3450,7 +3698,7 @@
       <c r="G1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="26" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3464,7 +3712,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="45">
       <c r="C3" s="22">
@@ -3485,9 +3733,9 @@
         <v>4</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" ht="60">
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" ht="45">
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3497,11 +3745,11 @@
       <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45">
+      <c r="H5" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3512,11 +3760,11 @@
         <v>9</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="60">
+      <c r="H6" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45">
       <c r="A7" s="22">
         <v>2</v>
       </c>
@@ -3529,11 +3777,11 @@
       <c r="G7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="60">
+      <c r="H7" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45">
       <c r="A8" s="22">
         <v>3</v>
       </c>
@@ -3546,12 +3794,12 @@
       <c r="G8" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>153</v>
+      <c r="H8" s="29" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30">
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="25" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="22">
@@ -3560,7 +3808,6 @@
       <c r="G9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="90">
       <c r="A10" s="22">
@@ -3575,9 +3822,8 @@
       <c r="G10" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" ht="45">
+    </row>
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" s="22">
         <v>4</v>
       </c>
@@ -3590,11 +3836,11 @@
       <c r="G11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="45">
+      <c r="H11" s="28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="22">
         <v>5</v>
       </c>
@@ -3607,11 +3853,11 @@
       <c r="G12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60">
+      <c r="H12" s="28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30">
       <c r="A13" s="22">
         <v>6</v>
       </c>
@@ -3627,8 +3873,8 @@
       <c r="G13" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>157</v>
+      <c r="H13" s="28" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3647,9 +3893,9 @@
       <c r="G14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="45">
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" s="22">
         <v>7</v>
       </c>
@@ -3662,11 +3908,11 @@
       <c r="G15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="60">
+      <c r="H15" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45">
       <c r="A16" s="22">
         <v>8</v>
       </c>
@@ -3682,11 +3928,11 @@
       <c r="G16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="45">
+      <c r="H16" s="28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30">
       <c r="A17" s="22">
         <v>9</v>
       </c>
@@ -3699,8 +3945,8 @@
       <c r="G17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>148</v>
+      <c r="H17" s="28" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="60">
@@ -3716,11 +3962,11 @@
       <c r="G18" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45">
+      <c r="H18" s="28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30">
       <c r="A19" s="22">
         <v>11</v>
       </c>
@@ -3733,11 +3979,11 @@
       <c r="G19" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="60">
+      <c r="H19" s="28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45">
       <c r="A20" s="22">
         <v>12</v>
       </c>
@@ -3753,11 +3999,11 @@
       <c r="G20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="60">
+      <c r="H20" s="28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45">
       <c r="A21" s="22">
         <v>13</v>
       </c>
@@ -3773,11 +4019,11 @@
       <c r="G21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="60">
+      <c r="H21" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45">
       <c r="A22" s="6" t="s">
         <v>163</v>
       </c>
@@ -3785,11 +4031,11 @@
         <v>164</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="60">
+      <c r="H22" s="30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45">
       <c r="A23" s="22" t="s">
         <v>76</v>
       </c>
@@ -3802,8 +4048,8 @@
       <c r="G23" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="21" t="s">
-        <v>162</v>
+      <c r="H23" s="28" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3822,9 +4068,9 @@
       <c r="G24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="60">
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" spans="1:8" ht="30">
       <c r="A25" s="22">
         <v>14</v>
       </c>
@@ -3837,15 +4083,15 @@
       <c r="G25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="105">
+      <c r="H25" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="90">
       <c r="A26" s="22">
         <v>15</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="36" t="s">
         <v>131</v>
       </c>
       <c r="E26" s="22" t="s">
@@ -3857,15 +4103,15 @@
       <c r="G26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="45">
+      <c r="H26" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30">
       <c r="A27" s="22">
         <v>16</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="36"/>
       <c r="E27" s="22" t="s">
         <v>18</v>
       </c>
@@ -3875,15 +4121,15 @@
       <c r="G27" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="45">
+      <c r="H27" s="28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30">
       <c r="A28" s="22">
         <v>17</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="36"/>
       <c r="E28" s="22" t="s">
         <v>19</v>
       </c>
@@ -3893,8 +4139,8 @@
       <c r="G28" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="21" t="s">
-        <v>182</v>
+      <c r="H28" s="28" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45">
@@ -3910,8 +4156,8 @@
       <c r="G29" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="21" t="s">
-        <v>181</v>
+      <c r="H29" s="28" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="45">
@@ -3927,15 +4173,15 @@
       <c r="G30" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="21" t="s">
-        <v>181</v>
+      <c r="H30" s="28" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="22">
         <v>20</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="36" t="s">
         <v>132</v>
       </c>
       <c r="E31" s="22" t="s">
@@ -3947,15 +4193,15 @@
       <c r="G31" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="21" t="s">
-        <v>194</v>
+      <c r="H31" s="28" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30">
       <c r="A32" s="22">
         <v>21</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="36"/>
       <c r="E32" s="22" t="s">
         <v>21</v>
       </c>
@@ -3965,12 +4211,12 @@
       <c r="G32" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="26" t="s">
-        <v>195</v>
+      <c r="H32" s="38" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="47" customHeight="1">
-      <c r="B33" s="25"/>
+      <c r="B33" s="36"/>
       <c r="E33" s="22" t="s">
         <v>22</v>
       </c>
@@ -3980,13 +4226,13 @@
       <c r="G33" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="25"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1">
       <c r="A34" s="22">
         <v>22</v>
       </c>
-      <c r="B34" s="25"/>
+      <c r="B34" s="36"/>
       <c r="E34" s="22" t="s">
         <v>74</v>
       </c>
@@ -3996,8 +4242,8 @@
       <c r="G34" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H34" s="26" t="s">
-        <v>196</v>
+      <c r="H34" s="35" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4005,7 +4251,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>12</v>
@@ -4016,10 +4262,10 @@
       <c r="G35" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="1:8" ht="60">
-      <c r="A36" s="24">
+      <c r="H35" s="29"/>
+    </row>
+    <row r="36" spans="1:8" ht="30">
+      <c r="A36" s="22">
         <v>23</v>
       </c>
       <c r="E36" s="22" t="s">
@@ -4031,12 +4277,12 @@
       <c r="G36" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H36" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="129" customHeight="1">
-      <c r="A37" s="24">
+      <c r="H36" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="59" customHeight="1">
+      <c r="A37" s="22">
         <v>24</v>
       </c>
       <c r="B37" s="22" t="s">
@@ -4051,12 +4297,12 @@
       <c r="G37" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="H37" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="60">
-      <c r="A38" s="24">
+      <c r="H37" s="31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30">
+      <c r="A38" s="22">
         <v>25</v>
       </c>
       <c r="E38" s="22" t="s">
@@ -4068,1134 +4314,870 @@
       <c r="G38" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="45">
-      <c r="A39" s="24" t="s">
+      <c r="H38" s="28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30">
+      <c r="A39" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30">
+      <c r="A40" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E40" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="H39" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="165">
-      <c r="A40" s="24">
+      <c r="H40" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="120">
+      <c r="A41" s="22">
         <v>26</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E41" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F41" s="22">
         <v>4</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G41" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="H40" s="21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="45">
-      <c r="A41" s="24">
+      <c r="H41" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="22">
         <v>27</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E42" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="22">
-        <v>1</v>
-      </c>
-      <c r="G41" s="22" t="s">
+      <c r="F42" s="22">
+        <v>1</v>
+      </c>
+      <c r="G42" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="60">
-      <c r="A42" s="24">
+      <c r="H42" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30">
+      <c r="A43" s="22">
         <v>28</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E43" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="22">
-        <v>1</v>
-      </c>
-      <c r="G42" s="22" t="s">
+      <c r="F43" s="22">
+        <v>1</v>
+      </c>
+      <c r="G43" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="60">
-      <c r="A43" s="24">
+      <c r="H43" s="28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30">
+      <c r="A44" s="22">
         <v>29</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E44" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F43" s="22">
-        <v>1</v>
-      </c>
-      <c r="G43" s="22" t="s">
+      <c r="F44" s="22">
+        <v>1</v>
+      </c>
+      <c r="G44" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H43" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="60">
-      <c r="A44" s="24">
+      <c r="H44" s="28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30">
+      <c r="A45" s="22">
         <v>30</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E45" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="22">
-        <v>1</v>
-      </c>
-      <c r="G44" s="22" t="s">
+      <c r="F45" s="22">
+        <v>1</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="60">
-      <c r="A45" s="24">
+      <c r="H45" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30">
+      <c r="A46" s="22">
         <v>31</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B46" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E46" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F46" s="22">
         <v>2</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G46" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H45" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="60">
-      <c r="A46" s="24">
+      <c r="H46" s="28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30">
+      <c r="A47" s="22">
         <v>32</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E47" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="F46" s="22">
-        <v>1</v>
-      </c>
-      <c r="G46" s="22" t="s">
+      <c r="F47" s="22">
+        <v>1</v>
+      </c>
+      <c r="G47" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="60">
-      <c r="A47" s="24">
+      <c r="H47" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30">
+      <c r="A48" s="22">
         <v>33</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B48" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E48" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="22">
-        <v>1</v>
-      </c>
-      <c r="G47" s="22" t="s">
+      <c r="F48" s="22">
+        <v>1</v>
+      </c>
+      <c r="G48" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="H47" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="150">
-      <c r="A48" s="24">
+      <c r="H48" s="28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="75">
+      <c r="A49" s="22">
         <v>34</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B49" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E49" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F49" s="22">
         <v>2</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G49" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H48" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="75">
-      <c r="A49" s="24">
+      <c r="H49" s="28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="90">
+      <c r="A50" s="22">
         <v>35</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="E49" s="22" t="s">
+      <c r="B50" s="36"/>
+      <c r="E50" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G50" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H49" s="21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="C50" s="22">
+      <c r="H50" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="C51" s="22">
+        <v>5</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="5">
         <v>4</v>
       </c>
-      <c r="D50" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="5" t="s">
+      <c r="G51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="29"/>
+    </row>
+    <row r="52" spans="1:8" ht="75">
+      <c r="A52" s="22">
+        <v>36</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="22">
+        <v>2</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="45">
+      <c r="A53" s="22">
+        <v>37</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="22">
+        <v>4</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="22">
+        <v>38</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="22">
+        <v>1</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30">
+      <c r="A55" s="22">
+        <v>39</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="22">
+        <v>1</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30">
+      <c r="A56" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="C57" s="22">
+        <v>6</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F57" s="5">
         <v>4</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" ht="60">
-      <c r="A51" s="22">
-        <v>23</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="22">
+      <c r="H57" s="29"/>
+    </row>
+    <row r="58" spans="1:8" ht="30">
+      <c r="A58" s="22">
+        <v>40</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="22">
+        <v>2</v>
+      </c>
+      <c r="H58" s="31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="22">
+        <v>41</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="22">
+        <v>12</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59" s="31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="22">
+        <v>42</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="22">
+        <v>8</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="22">
+        <v>43</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" s="22">
+        <v>1</v>
+      </c>
+      <c r="H61" s="30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="30">
+      <c r="A62" s="22">
+        <v>44</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62" s="22">
+        <v>1</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30">
+      <c r="A63" s="22">
+        <v>45</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="22">
         <v>3</v>
       </c>
-      <c r="G51" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="59" customHeight="1">
-      <c r="A52" s="22">
-        <v>24</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="22">
+      <c r="H63" s="31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="30">
+      <c r="A64" s="22">
+        <v>46</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="22">
+        <v>2</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H64" s="31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="22">
+        <v>46</v>
+      </c>
+      <c r="B65" s="36"/>
+      <c r="E65" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="22">
+        <v>1</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H65" s="31"/>
+    </row>
+    <row r="66" spans="1:8" ht="174" customHeight="1">
+      <c r="A66" s="22">
+        <v>47</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="22">
+        <v>4</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="22">
+        <v>48</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F67" s="22">
+        <v>1</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30">
+      <c r="A68" s="22">
+        <v>49</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" s="22">
+        <v>1</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="30">
+      <c r="A69" s="22">
+        <v>50</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="22">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30">
+      <c r="A70" s="22">
+        <v>51</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F70" s="22">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30">
+      <c r="A71" s="22">
+        <v>52</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F71" s="22">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="E72" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" s="22">
+        <v>1</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="E73" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="22">
         <v>3</v>
       </c>
-      <c r="G52" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="H52" s="23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="60">
-      <c r="A53" s="22">
-        <v>25</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" s="22">
-        <v>1</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="30">
-      <c r="A54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="H54" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="165">
-      <c r="A55" s="22">
-        <v>26</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="F55" s="22">
+      <c r="G73" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30">
+      <c r="A74" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="32"/>
+    </row>
+    <row r="75" spans="1:8" ht="18">
+      <c r="A75" s="2"/>
+      <c r="C75" s="22">
+        <v>7</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="5">
         <v>4</v>
       </c>
-      <c r="G55" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30">
-      <c r="A56" s="22">
-        <v>27</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F56" s="22">
-        <v>1</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="60">
-      <c r="A57" s="22">
-        <v>28</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F57" s="22">
-        <v>1</v>
-      </c>
-      <c r="G57" s="22" t="s">
+      <c r="G75" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" s="29"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="E76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="5">
+        <v>1</v>
+      </c>
+      <c r="G76" s="5">
+        <v>7</v>
+      </c>
+      <c r="H76" s="29"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="E77" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="5">
+        <v>1</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H77" s="33"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="E78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="5">
+        <v>2</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="29"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="E79" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="5">
+        <v>4</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H79" s="29"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="E80" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="5">
+        <v>4</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="29"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="22">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="5">
+        <v>9</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="29"/>
+    </row>
+    <row r="82" spans="1:8" ht="105">
+      <c r="A82" s="22">
+        <v>41</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F82" s="22">
+        <v>12</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="22">
+        <v>42</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" s="22">
+        <v>2</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="22">
+        <v>43</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="22">
+        <v>8</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="22">
+        <v>44</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F85" s="22">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="22">
+        <v>45</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F86" s="22">
+        <v>3</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="22">
+        <v>46</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="22">
+        <v>2</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="22">
+        <v>46</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F88" s="22">
+        <v>1</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="45">
+      <c r="A89" s="22">
+        <v>47</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" s="22">
+        <v>4</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="22">
+        <v>48</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F90" s="22">
+        <v>1</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="22">
+        <v>49</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F91" s="22">
+        <v>1</v>
+      </c>
+      <c r="G91" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="60">
-      <c r="A58" s="22">
-        <v>29</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F58" s="22">
-        <v>1</v>
-      </c>
-      <c r="G58" s="22" t="s">
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="22">
+        <v>50</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F92" s="22">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H58" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="45">
-      <c r="A59" s="22">
-        <v>30</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F59" s="22">
-        <v>1</v>
-      </c>
-      <c r="G59" s="22" t="s">
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="22">
+        <v>51</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F93" s="22">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H59" s="21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="60">
-      <c r="A60" s="22">
-        <v>31</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="22">
-        <v>2</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="60">
-      <c r="A61" s="22">
-        <v>32</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F61" s="22">
-        <v>1</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="H61" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="60">
-      <c r="A62" s="22">
-        <v>33</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F62" s="22">
-        <v>1</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="105">
-      <c r="A63" s="22">
-        <v>34</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="22">
-        <v>2</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="H63" s="21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="75">
-      <c r="A64" s="22">
-        <v>35</v>
-      </c>
-      <c r="B64" s="25"/>
-      <c r="E64" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="C65" s="22">
-        <v>5</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="5">
-        <v>4</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H65" s="5"/>
-    </row>
-    <row r="66" spans="1:8" ht="75">
-      <c r="A66" s="22">
-        <v>36</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F66" s="22">
-        <v>2</v>
-      </c>
-      <c r="G66" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="H66" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="45">
-      <c r="A67" s="22">
-        <v>37</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F67" s="22">
-        <v>4</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="H67" s="21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="45">
-      <c r="A68" s="22">
-        <v>38</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F68" s="22">
-        <v>1</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H68" s="21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="60">
-      <c r="A69" s="22">
-        <v>39</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F69" s="22">
-        <v>1</v>
-      </c>
-      <c r="G69" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H69" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="60">
-      <c r="A70" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E70" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="C71" s="22">
-        <v>6</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="5">
-        <v>4</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H71" s="5"/>
-    </row>
-    <row r="72" spans="1:8" ht="60">
-      <c r="A72" s="22">
-        <v>40</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F72" s="22">
-        <v>2</v>
-      </c>
-      <c r="H72" s="23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="30">
-      <c r="A73" s="22">
-        <v>41</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="22">
-        <v>12</v>
-      </c>
-      <c r="G73" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30">
-      <c r="A74" s="22">
-        <v>42</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" s="22">
-        <v>8</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="45">
-      <c r="A75" s="22">
-        <v>43</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F75" s="22">
-        <v>1</v>
-      </c>
-      <c r="H75" s="19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="60">
-      <c r="A76" s="22">
-        <v>44</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="F76" s="22">
-        <v>1</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="H76" s="23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="60">
-      <c r="A77" s="22">
-        <v>45</v>
-      </c>
-      <c r="E77" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F77" s="22">
-        <v>3</v>
-      </c>
-      <c r="H77" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="60">
-      <c r="A78" s="22">
-        <v>46</v>
-      </c>
-      <c r="B78" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F78" s="22">
-        <v>2</v>
-      </c>
-      <c r="G78" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H78" s="23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="22">
-        <v>46</v>
-      </c>
-      <c r="B79" s="25"/>
-      <c r="E79" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F79" s="22">
-        <v>1</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H79" s="23"/>
-    </row>
-    <row r="80" spans="1:8" ht="174" customHeight="1">
-      <c r="A80" s="22">
-        <v>47</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F80" s="22">
-        <v>4</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H80" s="21"/>
-    </row>
-    <row r="81" spans="1:8" ht="45">
-      <c r="A81" s="22">
-        <v>48</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F81" s="22">
-        <v>1</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H81" s="21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="60">
-      <c r="A82" s="22">
-        <v>49</v>
-      </c>
-      <c r="E82" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F82" s="22">
-        <v>1</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H82" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="60">
-      <c r="A83" s="22">
-        <v>50</v>
-      </c>
-      <c r="E83" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F83" s="22">
-        <v>1</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H83" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="60">
-      <c r="A84" s="22">
-        <v>51</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F84" s="22">
-        <v>1</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H84" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="60">
-      <c r="A85" s="22">
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="22">
         <v>52</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E94" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F85" s="22">
-        <v>1</v>
-      </c>
-      <c r="G85" s="3" t="s">
+      <c r="F94" s="22">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H85" s="21" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="E86" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F86" s="22">
-        <v>1</v>
-      </c>
-      <c r="G86" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H86" s="21"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="E87" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F87" s="22">
-        <v>3</v>
-      </c>
-      <c r="G87" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H87" s="21"/>
-    </row>
-    <row r="88" spans="1:8" ht="30">
-      <c r="A88" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-    </row>
-    <row r="89" spans="1:8" ht="18">
-      <c r="A89" s="2"/>
-      <c r="C89" s="22">
-        <v>7</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="5">
-        <v>4</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H89" s="5"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="E90" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F90" s="5">
-        <v>1</v>
-      </c>
-      <c r="G90" s="5">
-        <v>7</v>
-      </c>
-      <c r="H90" s="5"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="E91" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F91" s="5">
-        <v>1</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H91" s="7"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="E92" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F92" s="5">
-        <v>2</v>
-      </c>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="E93" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F93" s="5">
-        <v>4</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H93" s="5"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="E94" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="5">
-        <v>4</v>
-      </c>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="22">
-        <v>1</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" s="5">
-        <v>9</v>
-      </c>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-    </row>
-    <row r="96" spans="1:8" ht="105">
-      <c r="A96" s="22">
-        <v>41</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F96" s="22">
-        <v>12</v>
-      </c>
-      <c r="G96" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H96" s="21"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="22">
-        <v>42</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F97" s="22">
-        <v>2</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H97" s="21"/>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="22">
-        <v>43</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F98" s="22">
-        <v>8</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H98" s="21"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="22">
-        <v>44</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F99" s="22">
-        <v>1</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H99" s="21"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="22">
-        <v>45</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F100" s="22">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H100" s="21"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="22">
-        <v>46</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F101" s="22">
-        <v>2</v>
-      </c>
-      <c r="G101" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H101" s="21"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="22">
-        <v>46</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E102" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F102" s="22">
-        <v>1</v>
-      </c>
-      <c r="G102" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="45">
-      <c r="A103" s="22">
-        <v>47</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F103" s="22">
-        <v>4</v>
-      </c>
-      <c r="G103" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H103" s="21"/>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="22">
-        <v>48</v>
-      </c>
-      <c r="E104" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F104" s="22">
-        <v>1</v>
-      </c>
-      <c r="G104" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H104" s="21"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="22">
-        <v>49</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F105" s="22">
-        <v>1</v>
-      </c>
-      <c r="G105" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H105" s="21"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="22">
-        <v>50</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F106" s="22">
-        <v>1</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H106" s="21"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="22">
-        <v>51</v>
-      </c>
-      <c r="E107" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F107" s="22">
-        <v>1</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H107" s="21"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="22">
-        <v>52</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F108" s="22">
-        <v>1</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H108" s="15"/>
+      <c r="H94" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B78:B79"/>
+  <mergeCells count="5">
+    <mergeCell ref="B64:B65"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
